--- a/input/design-table/org.umeframework.ems.uac.entity/DB设计-UME基础用户表_v1.0.xlsx
+++ b/input/design-table/org.umeframework.ems.uac.entity/DB设计-UME基础用户表_v1.0.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmayye/Documents/Workspaces/ws_dora/ume-quickstart-tool/input/design-table/org.umeframework.quickstart.uac.entity/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mmayye/Documents/Workspaces/ws_dora/ume-ems-tool/input/design-table/org.umeframework.ems.uac.entity/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="24980" windowHeight="15540" tabRatio="918"/>
   </bookViews>
   <sheets>
     <sheet name="#REV" sheetId="8" r:id="rId1"/>
@@ -174,15 +174,6 @@
     <t>○</t>
   </si>
   <si>
-    <t>TABLE SPACE</t>
-  </si>
-  <si>
-    <t>TABLE SPACE (IDX)</t>
-  </si>
-  <si>
-    <t>TABLE SPACE (LOB)</t>
-  </si>
-  <si>
     <t>项目ID</t>
   </si>
   <si>
@@ -507,6 +498,15 @@
   </si>
   <si>
     <t>1:男 2:女</t>
+  </si>
+  <si>
+    <t>表空间</t>
+  </si>
+  <si>
+    <t>表空间(LOB)</t>
+  </si>
+  <si>
+    <t>更新历史开启</t>
   </si>
 </sst>
 </file>
@@ -522,7 +522,7 @@
     <numFmt numFmtId="169" formatCode="#,##0;\-#,##0;&quot;-&quot;"/>
     <numFmt numFmtId="170" formatCode="0.00_)"/>
   </numFmts>
-  <fonts count="104" x14ac:knownFonts="1">
+  <fonts count="103" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1140,17 +1140,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color indexed="56"/>
-      <name val="Microsoft YaHei Light"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF002060"/>
@@ -1158,8 +1147,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color rgb="FF002060"/>
+      <name val="Microsoft YaHei Light"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei Light"/>
       <charset val="134"/>
     </font>
@@ -1311,12 +1306,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0"/>
+        <fgColor theme="2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="23">
     <border>
       <left/>
       <right/>
@@ -1492,30 +1487,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="9"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="9"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="9"/>
       </left>
@@ -3633,7 +3604,7 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3742,150 +3713,21 @@
     <xf numFmtId="0" fontId="99" fillId="0" borderId="3" xfId="332" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="0" xfId="762" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="0" xfId="762" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="100" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="19" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="2" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="22" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="23" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="24" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="21" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="16" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="101" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="20" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="20" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="17" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="18" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="103" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="103" fillId="27" borderId="18" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3895,6 +3737,48 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="8" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="26" borderId="9" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="100" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -3904,40 +3788,109 @@
     <xf numFmtId="0" fontId="98" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="14" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="15" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="16" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="8" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="17" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="18" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="18" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="18" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="19" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="14" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="15" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="20" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="16" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="21" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="22" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="9" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="2" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="26" borderId="14" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="25" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
@@ -5164,130 +5117,130 @@
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="L21" sqref="L21"/>
+      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.3984375" style="47"/>
+    <col min="1" max="16384" width="3.3984375" style="92"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="40" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="53" t="s">
+    <row r="1" spans="1:53" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="61" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="63" t="s">
+        <v>12</v>
+      </c>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="63" t="s">
         <v>14</v>
       </c>
-      <c r="B1" s="54"/>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
-      <c r="E1" s="54"/>
-      <c r="F1" s="54"/>
-      <c r="G1" s="60" t="s">
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
-      <c r="K1" s="60"/>
-      <c r="L1" s="60"/>
-      <c r="M1" s="60"/>
-      <c r="N1" s="60"/>
-      <c r="O1" s="60"/>
-      <c r="P1" s="60" t="s">
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
+      <c r="AO1" s="63"/>
+      <c r="AP1" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="Q1" s="60"/>
-      <c r="R1" s="60"/>
-      <c r="S1" s="60"/>
-      <c r="T1" s="60"/>
-      <c r="U1" s="60"/>
-      <c r="V1" s="60"/>
-      <c r="W1" s="60"/>
-      <c r="X1" s="60"/>
-      <c r="Y1" s="60"/>
-      <c r="Z1" s="60"/>
-      <c r="AA1" s="60"/>
-      <c r="AB1" s="60"/>
-      <c r="AC1" s="60"/>
-      <c r="AD1" s="60"/>
-      <c r="AE1" s="60"/>
-      <c r="AF1" s="60"/>
-      <c r="AG1" s="72"/>
-      <c r="AH1" s="60" t="s">
+      <c r="AQ1" s="63"/>
+      <c r="AR1" s="63"/>
+      <c r="AS1" s="63"/>
+      <c r="AT1" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="AI1" s="60"/>
-      <c r="AJ1" s="60"/>
-      <c r="AK1" s="60"/>
-      <c r="AL1" s="60" t="s">
-        <v>18</v>
-      </c>
-      <c r="AM1" s="60"/>
-      <c r="AN1" s="60"/>
-      <c r="AO1" s="60"/>
-      <c r="AP1" s="60" t="s">
-        <v>19</v>
-      </c>
-      <c r="AQ1" s="60"/>
-      <c r="AR1" s="60"/>
-      <c r="AS1" s="60"/>
-      <c r="AT1" s="60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AU1" s="60"/>
-      <c r="AV1" s="60"/>
-      <c r="AW1" s="73"/>
+      <c r="AU1" s="63"/>
+      <c r="AV1" s="63"/>
+      <c r="AW1" s="65"/>
     </row>
-    <row r="2" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B2" s="55"/>
-      <c r="C2" s="55"/>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="59">
+    <row r="2" spans="1:53" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="67" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68">
         <v>20150001</v>
       </c>
-      <c r="H2" s="59"/>
-      <c r="I2" s="59"/>
-      <c r="J2" s="59"/>
-      <c r="K2" s="59"/>
-      <c r="L2" s="59"/>
-      <c r="M2" s="59"/>
-      <c r="N2" s="59"/>
-      <c r="O2" s="59"/>
-      <c r="P2" s="71" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q2" s="71"/>
-      <c r="R2" s="71"/>
-      <c r="S2" s="71"/>
-      <c r="T2" s="71"/>
-      <c r="U2" s="71"/>
-      <c r="V2" s="71"/>
-      <c r="W2" s="71"/>
-      <c r="X2" s="71"/>
-      <c r="Y2" s="71"/>
-      <c r="Z2" s="71"/>
-      <c r="AA2" s="71"/>
-      <c r="AB2" s="71"/>
-      <c r="AC2" s="71"/>
-      <c r="AD2" s="71"/>
-      <c r="AE2" s="71"/>
-      <c r="AF2" s="71"/>
-      <c r="AG2" s="71"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
       <c r="AH2" s="70">
         <v>42796</v>
       </c>
       <c r="AI2" s="70"/>
       <c r="AJ2" s="70"/>
       <c r="AK2" s="70"/>
-      <c r="AL2" s="69" t="s">
-        <v>31</v>
+      <c r="AL2" s="70" t="s">
+        <v>28</v>
       </c>
       <c r="AM2" s="70"/>
       <c r="AN2" s="70"/>
@@ -5298,47 +5251,47 @@
       <c r="AQ2" s="70"/>
       <c r="AR2" s="70"/>
       <c r="AS2" s="70"/>
-      <c r="AT2" s="69" t="s">
-        <v>31</v>
+      <c r="AT2" s="70" t="s">
+        <v>28</v>
       </c>
       <c r="AU2" s="70"/>
       <c r="AV2" s="70"/>
       <c r="AW2" s="70"/>
     </row>
-    <row r="3" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="55"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="55"/>
-      <c r="D3" s="55"/>
-      <c r="E3" s="55"/>
-      <c r="F3" s="55"/>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59"/>
-      <c r="I3" s="59"/>
-      <c r="J3" s="59"/>
-      <c r="K3" s="59"/>
-      <c r="L3" s="59"/>
-      <c r="M3" s="59"/>
-      <c r="N3" s="59"/>
-      <c r="O3" s="59"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="71"/>
-      <c r="R3" s="71"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="71"/>
-      <c r="U3" s="71"/>
-      <c r="V3" s="71"/>
-      <c r="W3" s="71"/>
-      <c r="X3" s="71"/>
-      <c r="Y3" s="71"/>
-      <c r="Z3" s="71"/>
-      <c r="AA3" s="71"/>
-      <c r="AB3" s="71"/>
-      <c r="AC3" s="71"/>
-      <c r="AD3" s="71"/>
-      <c r="AE3" s="71"/>
-      <c r="AF3" s="71"/>
-      <c r="AG3" s="71"/>
+    <row r="3" spans="1:53" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="67"/>
+      <c r="B3" s="67"/>
+      <c r="C3" s="67"/>
+      <c r="D3" s="67"/>
+      <c r="E3" s="67"/>
+      <c r="F3" s="67"/>
+      <c r="G3" s="68"/>
+      <c r="H3" s="68"/>
+      <c r="I3" s="68"/>
+      <c r="J3" s="68"/>
+      <c r="K3" s="68"/>
+      <c r="L3" s="68"/>
+      <c r="M3" s="68"/>
+      <c r="N3" s="68"/>
+      <c r="O3" s="68"/>
+      <c r="P3" s="69"/>
+      <c r="Q3" s="69"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
       <c r="AH3" s="70"/>
       <c r="AI3" s="70"/>
       <c r="AJ3" s="70"/>
@@ -5356,632 +5309,615 @@
       <c r="AV3" s="70"/>
       <c r="AW3" s="70"/>
     </row>
-    <row r="4" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="43"/>
-      <c r="AL4" s="42" t="s">
+    <row r="4" spans="1:53" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="72"/>
+      <c r="AL4" s="71" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="73" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="74"/>
+      <c r="C5" s="74" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" s="74"/>
+      <c r="E5" s="74"/>
+      <c r="F5" s="74"/>
+      <c r="G5" s="74"/>
+      <c r="H5" s="75" t="s">
+        <v>20</v>
+      </c>
+      <c r="I5" s="76"/>
+      <c r="J5" s="76"/>
+      <c r="K5" s="76"/>
+      <c r="L5" s="76"/>
+      <c r="M5" s="77"/>
+      <c r="N5" s="75" t="s">
+        <v>22</v>
+      </c>
+      <c r="O5" s="76"/>
+      <c r="P5" s="76"/>
+      <c r="Q5" s="76"/>
+      <c r="R5" s="76"/>
+      <c r="S5" s="76"/>
+      <c r="T5" s="76"/>
+      <c r="U5" s="76"/>
+      <c r="V5" s="76"/>
+      <c r="W5" s="76"/>
+      <c r="X5" s="77"/>
+      <c r="Y5" s="74" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z5" s="74"/>
+      <c r="AA5" s="74"/>
+      <c r="AB5" s="74"/>
+      <c r="AC5" s="74"/>
+      <c r="AD5" s="74"/>
+      <c r="AE5" s="74"/>
+      <c r="AF5" s="74"/>
+      <c r="AG5" s="74"/>
+      <c r="AH5" s="74"/>
+      <c r="AI5" s="74"/>
+      <c r="AJ5" s="74"/>
+      <c r="AK5" s="74"/>
+      <c r="AL5" s="74"/>
+      <c r="AM5" s="74"/>
+      <c r="AN5" s="74"/>
+      <c r="AO5" s="74"/>
+      <c r="AP5" s="74"/>
+      <c r="AQ5" s="74"/>
+      <c r="AR5" s="74"/>
+      <c r="AS5" s="74"/>
+      <c r="AT5" s="74"/>
+      <c r="AU5" s="74"/>
+      <c r="AV5" s="74"/>
+      <c r="AW5" s="78"/>
+      <c r="AX5" s="79"/>
+      <c r="AY5" s="79"/>
+      <c r="AZ5" s="79"/>
+      <c r="BA5" s="80"/>
+    </row>
+    <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="82">
+        <v>1</v>
+      </c>
+      <c r="B6" s="83"/>
+      <c r="C6" s="84">
+        <v>42796</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="84" t="s">
         <v>28</v>
       </c>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="86"/>
+      <c r="N6" s="87" t="s">
+        <v>29</v>
+      </c>
+      <c r="O6" s="87"/>
+      <c r="P6" s="87"/>
+      <c r="Q6" s="87"/>
+      <c r="R6" s="87"/>
+      <c r="S6" s="87"/>
+      <c r="T6" s="87"/>
+      <c r="U6" s="87"/>
+      <c r="V6" s="87"/>
+      <c r="W6" s="87"/>
+      <c r="X6" s="88"/>
+      <c r="Y6" s="89" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z6" s="87"/>
+      <c r="AA6" s="87"/>
+      <c r="AB6" s="87"/>
+      <c r="AC6" s="87"/>
+      <c r="AD6" s="87"/>
+      <c r="AE6" s="87"/>
+      <c r="AF6" s="87"/>
+      <c r="AG6" s="87"/>
+      <c r="AH6" s="87"/>
+      <c r="AI6" s="87"/>
+      <c r="AJ6" s="87"/>
+      <c r="AK6" s="87"/>
+      <c r="AL6" s="87"/>
+      <c r="AM6" s="87"/>
+      <c r="AN6" s="87"/>
+      <c r="AO6" s="87"/>
+      <c r="AP6" s="87"/>
+      <c r="AQ6" s="87"/>
+      <c r="AR6" s="87"/>
+      <c r="AS6" s="87"/>
+      <c r="AT6" s="87"/>
+      <c r="AU6" s="87"/>
+      <c r="AV6" s="87"/>
+      <c r="AW6" s="88"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="91"/>
     </row>
-    <row r="5" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="66" t="s">
-        <v>21</v>
-      </c>
-      <c r="B5" s="67"/>
-      <c r="C5" s="67" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="67"/>
-      <c r="E5" s="67"/>
-      <c r="F5" s="67"/>
-      <c r="G5" s="67"/>
-      <c r="H5" s="61" t="s">
-        <v>23</v>
-      </c>
-      <c r="I5" s="62"/>
-      <c r="J5" s="62"/>
-      <c r="K5" s="62"/>
-      <c r="L5" s="62"/>
-      <c r="M5" s="63"/>
-      <c r="N5" s="61" t="s">
-        <v>25</v>
-      </c>
-      <c r="O5" s="62"/>
-      <c r="P5" s="62"/>
-      <c r="Q5" s="62"/>
-      <c r="R5" s="62"/>
-      <c r="S5" s="62"/>
-      <c r="T5" s="62"/>
-      <c r="U5" s="62"/>
-      <c r="V5" s="62"/>
-      <c r="W5" s="62"/>
-      <c r="X5" s="63"/>
-      <c r="Y5" s="67" t="s">
-        <v>24</v>
-      </c>
-      <c r="Z5" s="67"/>
-      <c r="AA5" s="67"/>
-      <c r="AB5" s="67"/>
-      <c r="AC5" s="67"/>
-      <c r="AD5" s="67"/>
-      <c r="AE5" s="67"/>
-      <c r="AF5" s="67"/>
-      <c r="AG5" s="67"/>
-      <c r="AH5" s="67"/>
-      <c r="AI5" s="67"/>
-      <c r="AJ5" s="67"/>
-      <c r="AK5" s="67"/>
-      <c r="AL5" s="67"/>
-      <c r="AM5" s="67"/>
-      <c r="AN5" s="67"/>
-      <c r="AO5" s="67"/>
-      <c r="AP5" s="67"/>
-      <c r="AQ5" s="67"/>
-      <c r="AR5" s="67"/>
-      <c r="AS5" s="67"/>
-      <c r="AT5" s="67"/>
-      <c r="AU5" s="67"/>
-      <c r="AV5" s="67"/>
-      <c r="AW5" s="80"/>
-      <c r="AX5" s="44"/>
-      <c r="AY5" s="44"/>
-      <c r="AZ5" s="44"/>
-      <c r="BA5" s="45"/>
+    <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="93"/>
+      <c r="B7" s="93"/>
+      <c r="C7" s="94"/>
+      <c r="D7" s="94"/>
+      <c r="E7" s="94"/>
+      <c r="F7" s="94"/>
+      <c r="G7" s="94"/>
+      <c r="H7" s="84"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="85"/>
+      <c r="M7" s="86"/>
+      <c r="N7" s="95"/>
+      <c r="O7" s="87"/>
+      <c r="P7" s="87"/>
+      <c r="Q7" s="87"/>
+      <c r="R7" s="87"/>
+      <c r="S7" s="87"/>
+      <c r="T7" s="87"/>
+      <c r="U7" s="87"/>
+      <c r="V7" s="87"/>
+      <c r="W7" s="87"/>
+      <c r="X7" s="88"/>
+      <c r="Y7" s="89"/>
+      <c r="Z7" s="87"/>
+      <c r="AA7" s="87"/>
+      <c r="AB7" s="87"/>
+      <c r="AC7" s="87"/>
+      <c r="AD7" s="87"/>
+      <c r="AE7" s="87"/>
+      <c r="AF7" s="87"/>
+      <c r="AG7" s="87"/>
+      <c r="AH7" s="87"/>
+      <c r="AI7" s="87"/>
+      <c r="AJ7" s="87"/>
+      <c r="AK7" s="87"/>
+      <c r="AL7" s="87"/>
+      <c r="AM7" s="87"/>
+      <c r="AN7" s="87"/>
+      <c r="AO7" s="87"/>
+      <c r="AP7" s="87"/>
+      <c r="AQ7" s="87"/>
+      <c r="AR7" s="87"/>
+      <c r="AS7" s="87"/>
+      <c r="AT7" s="87"/>
+      <c r="AU7" s="87"/>
+      <c r="AV7" s="87"/>
+      <c r="AW7" s="88"/>
+      <c r="AX7" s="90"/>
+      <c r="AY7" s="90"/>
+      <c r="AZ7" s="90"/>
+      <c r="BA7" s="91"/>
     </row>
-    <row r="6" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="64">
-        <v>1</v>
-      </c>
-      <c r="B6" s="65"/>
-      <c r="C6" s="56">
-        <v>42796</v>
-      </c>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-      <c r="G6" s="58"/>
-      <c r="H6" s="68" t="s">
-        <v>31</v>
-      </c>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="K6" s="57"/>
-      <c r="L6" s="57"/>
-      <c r="M6" s="58"/>
-      <c r="N6" s="76" t="s">
-        <v>32</v>
-      </c>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
-      <c r="Q6" s="76"/>
-      <c r="R6" s="76"/>
-      <c r="S6" s="76"/>
-      <c r="T6" s="76"/>
-      <c r="U6" s="76"/>
-      <c r="V6" s="76"/>
-      <c r="W6" s="76"/>
-      <c r="X6" s="77"/>
-      <c r="Y6" s="79" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z6" s="76"/>
-      <c r="AA6" s="76"/>
-      <c r="AB6" s="76"/>
-      <c r="AC6" s="76"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-      <c r="AG6" s="76"/>
-      <c r="AH6" s="76"/>
-      <c r="AI6" s="76"/>
-      <c r="AJ6" s="76"/>
-      <c r="AK6" s="76"/>
-      <c r="AL6" s="76"/>
-      <c r="AM6" s="76"/>
-      <c r="AN6" s="76"/>
-      <c r="AO6" s="76"/>
-      <c r="AP6" s="76"/>
-      <c r="AQ6" s="76"/>
-      <c r="AR6" s="76"/>
-      <c r="AS6" s="76"/>
-      <c r="AT6" s="76"/>
-      <c r="AU6" s="76"/>
-      <c r="AV6" s="76"/>
-      <c r="AW6" s="77"/>
-      <c r="AX6" s="49"/>
-      <c r="AY6" s="49"/>
-      <c r="AZ6" s="49"/>
-      <c r="BA6" s="50"/>
+    <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="93"/>
+      <c r="B8" s="93"/>
+      <c r="C8" s="94"/>
+      <c r="D8" s="94"/>
+      <c r="E8" s="94"/>
+      <c r="F8" s="94"/>
+      <c r="G8" s="94"/>
+      <c r="H8" s="84"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="85"/>
+      <c r="M8" s="86"/>
+      <c r="N8" s="95"/>
+      <c r="O8" s="87"/>
+      <c r="P8" s="87"/>
+      <c r="Q8" s="87"/>
+      <c r="R8" s="87"/>
+      <c r="S8" s="87"/>
+      <c r="T8" s="87"/>
+      <c r="U8" s="87"/>
+      <c r="V8" s="87"/>
+      <c r="W8" s="87"/>
+      <c r="X8" s="88"/>
+      <c r="Y8" s="95"/>
+      <c r="Z8" s="87"/>
+      <c r="AA8" s="87"/>
+      <c r="AB8" s="87"/>
+      <c r="AC8" s="87"/>
+      <c r="AD8" s="87"/>
+      <c r="AE8" s="87"/>
+      <c r="AF8" s="87"/>
+      <c r="AG8" s="87"/>
+      <c r="AH8" s="87"/>
+      <c r="AI8" s="87"/>
+      <c r="AJ8" s="87"/>
+      <c r="AK8" s="87"/>
+      <c r="AL8" s="87"/>
+      <c r="AM8" s="87"/>
+      <c r="AN8" s="87"/>
+      <c r="AO8" s="87"/>
+      <c r="AP8" s="87"/>
+      <c r="AQ8" s="87"/>
+      <c r="AR8" s="87"/>
+      <c r="AS8" s="87"/>
+      <c r="AT8" s="87"/>
+      <c r="AU8" s="87"/>
+      <c r="AV8" s="87"/>
+      <c r="AW8" s="88"/>
+      <c r="AX8" s="90"/>
+      <c r="AY8" s="90"/>
+      <c r="AZ8" s="90"/>
+      <c r="BA8" s="91"/>
     </row>
-    <row r="7" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="78"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="74"/>
-      <c r="D7" s="74"/>
-      <c r="E7" s="74"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="74"/>
-      <c r="H7" s="56"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="K7" s="57"/>
-      <c r="L7" s="57"/>
-      <c r="M7" s="58"/>
-      <c r="N7" s="75"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
-      <c r="Q7" s="76"/>
-      <c r="R7" s="76"/>
-      <c r="S7" s="76"/>
-      <c r="T7" s="76"/>
-      <c r="U7" s="76"/>
-      <c r="V7" s="76"/>
-      <c r="W7" s="76"/>
-      <c r="X7" s="77"/>
-      <c r="Y7" s="79"/>
-      <c r="Z7" s="76"/>
-      <c r="AA7" s="76"/>
-      <c r="AB7" s="76"/>
-      <c r="AC7" s="76"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-      <c r="AG7" s="76"/>
-      <c r="AH7" s="76"/>
-      <c r="AI7" s="76"/>
-      <c r="AJ7" s="76"/>
-      <c r="AK7" s="76"/>
-      <c r="AL7" s="76"/>
-      <c r="AM7" s="76"/>
-      <c r="AN7" s="76"/>
-      <c r="AO7" s="76"/>
-      <c r="AP7" s="76"/>
-      <c r="AQ7" s="76"/>
-      <c r="AR7" s="76"/>
-      <c r="AS7" s="76"/>
-      <c r="AT7" s="76"/>
-      <c r="AU7" s="76"/>
-      <c r="AV7" s="76"/>
-      <c r="AW7" s="77"/>
-      <c r="AX7" s="49"/>
-      <c r="AY7" s="49"/>
-      <c r="AZ7" s="49"/>
-      <c r="BA7" s="50"/>
+    <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="93"/>
+      <c r="B9" s="93"/>
+      <c r="C9" s="94"/>
+      <c r="D9" s="94"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="94"/>
+      <c r="G9" s="94"/>
+      <c r="H9" s="84"/>
+      <c r="I9" s="85"/>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="85"/>
+      <c r="M9" s="86"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="87"/>
+      <c r="P9" s="87"/>
+      <c r="Q9" s="87"/>
+      <c r="R9" s="87"/>
+      <c r="S9" s="87"/>
+      <c r="T9" s="87"/>
+      <c r="U9" s="87"/>
+      <c r="V9" s="87"/>
+      <c r="W9" s="87"/>
+      <c r="X9" s="88"/>
+      <c r="Y9" s="95"/>
+      <c r="Z9" s="87"/>
+      <c r="AA9" s="87"/>
+      <c r="AB9" s="87"/>
+      <c r="AC9" s="87"/>
+      <c r="AD9" s="87"/>
+      <c r="AE9" s="87"/>
+      <c r="AF9" s="87"/>
+      <c r="AG9" s="87"/>
+      <c r="AH9" s="87"/>
+      <c r="AI9" s="87"/>
+      <c r="AJ9" s="87"/>
+      <c r="AK9" s="87"/>
+      <c r="AL9" s="87"/>
+      <c r="AM9" s="87"/>
+      <c r="AN9" s="87"/>
+      <c r="AO9" s="87"/>
+      <c r="AP9" s="87"/>
+      <c r="AQ9" s="87"/>
+      <c r="AR9" s="87"/>
+      <c r="AS9" s="87"/>
+      <c r="AT9" s="87"/>
+      <c r="AU9" s="87"/>
+      <c r="AV9" s="87"/>
+      <c r="AW9" s="88"/>
+      <c r="AX9" s="90"/>
+      <c r="AY9" s="90"/>
+      <c r="AZ9" s="90"/>
+      <c r="BA9" s="91"/>
     </row>
-    <row r="8" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="78"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="74"/>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="74"/>
-      <c r="H8" s="56"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="K8" s="57"/>
-      <c r="L8" s="57"/>
-      <c r="M8" s="58"/>
-      <c r="N8" s="75"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
-      <c r="Q8" s="76"/>
-      <c r="R8" s="76"/>
-      <c r="S8" s="76"/>
-      <c r="T8" s="76"/>
-      <c r="U8" s="76"/>
-      <c r="V8" s="76"/>
-      <c r="W8" s="76"/>
-      <c r="X8" s="77"/>
-      <c r="Y8" s="75"/>
-      <c r="Z8" s="76"/>
-      <c r="AA8" s="76"/>
-      <c r="AB8" s="76"/>
-      <c r="AC8" s="76"/>
-      <c r="AD8" s="76"/>
-      <c r="AE8" s="76"/>
-      <c r="AF8" s="76"/>
-      <c r="AG8" s="76"/>
-      <c r="AH8" s="76"/>
-      <c r="AI8" s="76"/>
-      <c r="AJ8" s="76"/>
-      <c r="AK8" s="76"/>
-      <c r="AL8" s="76"/>
-      <c r="AM8" s="76"/>
-      <c r="AN8" s="76"/>
-      <c r="AO8" s="76"/>
-      <c r="AP8" s="76"/>
-      <c r="AQ8" s="76"/>
-      <c r="AR8" s="76"/>
-      <c r="AS8" s="76"/>
-      <c r="AT8" s="76"/>
-      <c r="AU8" s="76"/>
-      <c r="AV8" s="76"/>
-      <c r="AW8" s="77"/>
-      <c r="AX8" s="49"/>
-      <c r="AY8" s="49"/>
-      <c r="AZ8" s="49"/>
-      <c r="BA8" s="50"/>
+    <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="93"/>
+      <c r="B10" s="93"/>
+      <c r="C10" s="94"/>
+      <c r="D10" s="94"/>
+      <c r="E10" s="94"/>
+      <c r="F10" s="94"/>
+      <c r="G10" s="94"/>
+      <c r="H10" s="84"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="85"/>
+      <c r="M10" s="86"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="87"/>
+      <c r="P10" s="87"/>
+      <c r="Q10" s="87"/>
+      <c r="R10" s="87"/>
+      <c r="S10" s="87"/>
+      <c r="T10" s="87"/>
+      <c r="U10" s="87"/>
+      <c r="V10" s="87"/>
+      <c r="W10" s="87"/>
+      <c r="X10" s="88"/>
+      <c r="Y10" s="95"/>
+      <c r="Z10" s="87"/>
+      <c r="AA10" s="87"/>
+      <c r="AB10" s="87"/>
+      <c r="AC10" s="87"/>
+      <c r="AD10" s="87"/>
+      <c r="AE10" s="87"/>
+      <c r="AF10" s="87"/>
+      <c r="AG10" s="87"/>
+      <c r="AH10" s="87"/>
+      <c r="AI10" s="87"/>
+      <c r="AJ10" s="87"/>
+      <c r="AK10" s="87"/>
+      <c r="AL10" s="87"/>
+      <c r="AM10" s="87"/>
+      <c r="AN10" s="87"/>
+      <c r="AO10" s="87"/>
+      <c r="AP10" s="87"/>
+      <c r="AQ10" s="87"/>
+      <c r="AR10" s="87"/>
+      <c r="AS10" s="87"/>
+      <c r="AT10" s="87"/>
+      <c r="AU10" s="87"/>
+      <c r="AV10" s="87"/>
+      <c r="AW10" s="88"/>
+      <c r="AX10" s="90"/>
+      <c r="AY10" s="90"/>
+      <c r="AZ10" s="90"/>
+      <c r="BA10" s="91"/>
     </row>
-    <row r="9" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="78"/>
-      <c r="B9" s="78"/>
-      <c r="C9" s="74"/>
-      <c r="D9" s="74"/>
-      <c r="E9" s="74"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="74"/>
-      <c r="H9" s="56"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="K9" s="57"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="58"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="76"/>
-      <c r="P9" s="76"/>
-      <c r="Q9" s="76"/>
-      <c r="R9" s="76"/>
-      <c r="S9" s="76"/>
-      <c r="T9" s="76"/>
-      <c r="U9" s="76"/>
-      <c r="V9" s="76"/>
-      <c r="W9" s="76"/>
-      <c r="X9" s="77"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="76"/>
-      <c r="AA9" s="76"/>
-      <c r="AB9" s="76"/>
-      <c r="AC9" s="76"/>
-      <c r="AD9" s="76"/>
-      <c r="AE9" s="76"/>
-      <c r="AF9" s="76"/>
-      <c r="AG9" s="76"/>
-      <c r="AH9" s="76"/>
-      <c r="AI9" s="76"/>
-      <c r="AJ9" s="76"/>
-      <c r="AK9" s="76"/>
-      <c r="AL9" s="76"/>
-      <c r="AM9" s="76"/>
-      <c r="AN9" s="76"/>
-      <c r="AO9" s="76"/>
-      <c r="AP9" s="76"/>
-      <c r="AQ9" s="76"/>
-      <c r="AR9" s="76"/>
-      <c r="AS9" s="76"/>
-      <c r="AT9" s="76"/>
-      <c r="AU9" s="76"/>
-      <c r="AV9" s="76"/>
-      <c r="AW9" s="77"/>
-      <c r="AX9" s="49"/>
-      <c r="AY9" s="49"/>
-      <c r="AZ9" s="49"/>
-      <c r="BA9" s="50"/>
+    <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="93"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="94"/>
+      <c r="D11" s="94"/>
+      <c r="E11" s="94"/>
+      <c r="F11" s="94"/>
+      <c r="G11" s="94"/>
+      <c r="H11" s="84"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="85"/>
+      <c r="M11" s="86"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="87"/>
+      <c r="P11" s="87"/>
+      <c r="Q11" s="87"/>
+      <c r="R11" s="87"/>
+      <c r="S11" s="87"/>
+      <c r="T11" s="87"/>
+      <c r="U11" s="87"/>
+      <c r="V11" s="87"/>
+      <c r="W11" s="87"/>
+      <c r="X11" s="88"/>
+      <c r="Y11" s="95"/>
+      <c r="Z11" s="87"/>
+      <c r="AA11" s="87"/>
+      <c r="AB11" s="87"/>
+      <c r="AC11" s="87"/>
+      <c r="AD11" s="87"/>
+      <c r="AE11" s="87"/>
+      <c r="AF11" s="87"/>
+      <c r="AG11" s="87"/>
+      <c r="AH11" s="87"/>
+      <c r="AI11" s="87"/>
+      <c r="AJ11" s="87"/>
+      <c r="AK11" s="87"/>
+      <c r="AL11" s="87"/>
+      <c r="AM11" s="87"/>
+      <c r="AN11" s="87"/>
+      <c r="AO11" s="87"/>
+      <c r="AP11" s="87"/>
+      <c r="AQ11" s="87"/>
+      <c r="AR11" s="87"/>
+      <c r="AS11" s="87"/>
+      <c r="AT11" s="87"/>
+      <c r="AU11" s="87"/>
+      <c r="AV11" s="87"/>
+      <c r="AW11" s="88"/>
+      <c r="AX11" s="90"/>
+      <c r="AY11" s="90"/>
+      <c r="AZ11" s="90"/>
+      <c r="BA11" s="91"/>
     </row>
-    <row r="10" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="78"/>
-      <c r="B10" s="78"/>
-      <c r="C10" s="74"/>
-      <c r="D10" s="74"/>
-      <c r="E10" s="74"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="74"/>
-      <c r="H10" s="56"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-      <c r="K10" s="57"/>
-      <c r="L10" s="57"/>
-      <c r="M10" s="58"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="76"/>
-      <c r="P10" s="76"/>
-      <c r="Q10" s="76"/>
-      <c r="R10" s="76"/>
-      <c r="S10" s="76"/>
-      <c r="T10" s="76"/>
-      <c r="U10" s="76"/>
-      <c r="V10" s="76"/>
-      <c r="W10" s="76"/>
-      <c r="X10" s="77"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="76"/>
-      <c r="AA10" s="76"/>
-      <c r="AB10" s="76"/>
-      <c r="AC10" s="76"/>
-      <c r="AD10" s="76"/>
-      <c r="AE10" s="76"/>
-      <c r="AF10" s="76"/>
-      <c r="AG10" s="76"/>
-      <c r="AH10" s="76"/>
-      <c r="AI10" s="76"/>
-      <c r="AJ10" s="76"/>
-      <c r="AK10" s="76"/>
-      <c r="AL10" s="76"/>
-      <c r="AM10" s="76"/>
-      <c r="AN10" s="76"/>
-      <c r="AO10" s="76"/>
-      <c r="AP10" s="76"/>
-      <c r="AQ10" s="76"/>
-      <c r="AR10" s="76"/>
-      <c r="AS10" s="76"/>
-      <c r="AT10" s="76"/>
-      <c r="AU10" s="76"/>
-      <c r="AV10" s="76"/>
-      <c r="AW10" s="77"/>
-      <c r="AX10" s="49"/>
-      <c r="AY10" s="49"/>
-      <c r="AZ10" s="49"/>
-      <c r="BA10" s="50"/>
+    <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="93"/>
+      <c r="B12" s="93"/>
+      <c r="C12" s="94"/>
+      <c r="D12" s="94"/>
+      <c r="E12" s="94"/>
+      <c r="F12" s="94"/>
+      <c r="G12" s="94"/>
+      <c r="H12" s="84"/>
+      <c r="I12" s="85"/>
+      <c r="J12" s="85"/>
+      <c r="K12" s="85"/>
+      <c r="L12" s="85"/>
+      <c r="M12" s="86"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="87"/>
+      <c r="P12" s="87"/>
+      <c r="Q12" s="87"/>
+      <c r="R12" s="87"/>
+      <c r="S12" s="87"/>
+      <c r="T12" s="87"/>
+      <c r="U12" s="87"/>
+      <c r="V12" s="87"/>
+      <c r="W12" s="87"/>
+      <c r="X12" s="88"/>
+      <c r="Y12" s="95"/>
+      <c r="Z12" s="87"/>
+      <c r="AA12" s="87"/>
+      <c r="AB12" s="87"/>
+      <c r="AC12" s="87"/>
+      <c r="AD12" s="87"/>
+      <c r="AE12" s="87"/>
+      <c r="AF12" s="87"/>
+      <c r="AG12" s="87"/>
+      <c r="AH12" s="87"/>
+      <c r="AI12" s="87"/>
+      <c r="AJ12" s="87"/>
+      <c r="AK12" s="87"/>
+      <c r="AL12" s="87"/>
+      <c r="AM12" s="87"/>
+      <c r="AN12" s="87"/>
+      <c r="AO12" s="87"/>
+      <c r="AP12" s="87"/>
+      <c r="AQ12" s="87"/>
+      <c r="AR12" s="87"/>
+      <c r="AS12" s="87"/>
+      <c r="AT12" s="87"/>
+      <c r="AU12" s="87"/>
+      <c r="AV12" s="87"/>
+      <c r="AW12" s="88"/>
+      <c r="AX12" s="90"/>
+      <c r="AY12" s="90"/>
+      <c r="AZ12" s="90"/>
+      <c r="BA12" s="91"/>
     </row>
-    <row r="11" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="78"/>
-      <c r="B11" s="78"/>
-      <c r="C11" s="74"/>
-      <c r="D11" s="74"/>
-      <c r="E11" s="74"/>
-      <c r="F11" s="74"/>
-      <c r="G11" s="74"/>
-      <c r="H11" s="56"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-      <c r="K11" s="57"/>
-      <c r="L11" s="57"/>
-      <c r="M11" s="58"/>
-      <c r="N11" s="75"/>
-      <c r="O11" s="76"/>
-      <c r="P11" s="76"/>
-      <c r="Q11" s="76"/>
-      <c r="R11" s="76"/>
-      <c r="S11" s="76"/>
-      <c r="T11" s="76"/>
-      <c r="U11" s="76"/>
-      <c r="V11" s="76"/>
-      <c r="W11" s="76"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="75"/>
-      <c r="Z11" s="76"/>
-      <c r="AA11" s="76"/>
-      <c r="AB11" s="76"/>
-      <c r="AC11" s="76"/>
-      <c r="AD11" s="76"/>
-      <c r="AE11" s="76"/>
-      <c r="AF11" s="76"/>
-      <c r="AG11" s="76"/>
-      <c r="AH11" s="76"/>
-      <c r="AI11" s="76"/>
-      <c r="AJ11" s="76"/>
-      <c r="AK11" s="76"/>
-      <c r="AL11" s="76"/>
-      <c r="AM11" s="76"/>
-      <c r="AN11" s="76"/>
-      <c r="AO11" s="76"/>
-      <c r="AP11" s="76"/>
-      <c r="AQ11" s="76"/>
-      <c r="AR11" s="76"/>
-      <c r="AS11" s="76"/>
-      <c r="AT11" s="76"/>
-      <c r="AU11" s="76"/>
-      <c r="AV11" s="76"/>
-      <c r="AW11" s="77"/>
-      <c r="AX11" s="49"/>
-      <c r="AY11" s="49"/>
-      <c r="AZ11" s="49"/>
-      <c r="BA11" s="50"/>
+    <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="93"/>
+      <c r="B13" s="93"/>
+      <c r="C13" s="94"/>
+      <c r="D13" s="94"/>
+      <c r="E13" s="94"/>
+      <c r="F13" s="94"/>
+      <c r="G13" s="94"/>
+      <c r="H13" s="84"/>
+      <c r="I13" s="85"/>
+      <c r="J13" s="85"/>
+      <c r="K13" s="85"/>
+      <c r="L13" s="85"/>
+      <c r="M13" s="86"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="87"/>
+      <c r="P13" s="87"/>
+      <c r="Q13" s="87"/>
+      <c r="R13" s="87"/>
+      <c r="S13" s="87"/>
+      <c r="T13" s="87"/>
+      <c r="U13" s="87"/>
+      <c r="V13" s="87"/>
+      <c r="W13" s="87"/>
+      <c r="X13" s="88"/>
+      <c r="Y13" s="95"/>
+      <c r="Z13" s="87"/>
+      <c r="AA13" s="87"/>
+      <c r="AB13" s="87"/>
+      <c r="AC13" s="87"/>
+      <c r="AD13" s="87"/>
+      <c r="AE13" s="87"/>
+      <c r="AF13" s="87"/>
+      <c r="AG13" s="87"/>
+      <c r="AH13" s="87"/>
+      <c r="AI13" s="87"/>
+      <c r="AJ13" s="87"/>
+      <c r="AK13" s="87"/>
+      <c r="AL13" s="87"/>
+      <c r="AM13" s="87"/>
+      <c r="AN13" s="87"/>
+      <c r="AO13" s="87"/>
+      <c r="AP13" s="87"/>
+      <c r="AQ13" s="87"/>
+      <c r="AR13" s="87"/>
+      <c r="AS13" s="87"/>
+      <c r="AT13" s="87"/>
+      <c r="AU13" s="87"/>
+      <c r="AV13" s="87"/>
+      <c r="AW13" s="88"/>
+      <c r="AX13" s="90"/>
+      <c r="AY13" s="90"/>
+      <c r="AZ13" s="90"/>
+      <c r="BA13" s="91"/>
     </row>
-    <row r="12" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="78"/>
-      <c r="B12" s="78"/>
-      <c r="C12" s="74"/>
-      <c r="D12" s="74"/>
-      <c r="E12" s="74"/>
-      <c r="F12" s="74"/>
-      <c r="G12" s="74"/>
-      <c r="H12" s="56"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-      <c r="K12" s="57"/>
-      <c r="L12" s="57"/>
-      <c r="M12" s="58"/>
-      <c r="N12" s="75"/>
-      <c r="O12" s="76"/>
-      <c r="P12" s="76"/>
-      <c r="Q12" s="76"/>
-      <c r="R12" s="76"/>
-      <c r="S12" s="76"/>
-      <c r="T12" s="76"/>
-      <c r="U12" s="76"/>
-      <c r="V12" s="76"/>
-      <c r="W12" s="76"/>
-      <c r="X12" s="77"/>
-      <c r="Y12" s="75"/>
-      <c r="Z12" s="76"/>
-      <c r="AA12" s="76"/>
-      <c r="AB12" s="76"/>
-      <c r="AC12" s="76"/>
-      <c r="AD12" s="76"/>
-      <c r="AE12" s="76"/>
-      <c r="AF12" s="76"/>
-      <c r="AG12" s="76"/>
-      <c r="AH12" s="76"/>
-      <c r="AI12" s="76"/>
-      <c r="AJ12" s="76"/>
-      <c r="AK12" s="76"/>
-      <c r="AL12" s="76"/>
-      <c r="AM12" s="76"/>
-      <c r="AN12" s="76"/>
-      <c r="AO12" s="76"/>
-      <c r="AP12" s="76"/>
-      <c r="AQ12" s="76"/>
-      <c r="AR12" s="76"/>
-      <c r="AS12" s="76"/>
-      <c r="AT12" s="76"/>
-      <c r="AU12" s="76"/>
-      <c r="AV12" s="76"/>
-      <c r="AW12" s="77"/>
-      <c r="AX12" s="49"/>
-      <c r="AY12" s="49"/>
-      <c r="AZ12" s="49"/>
-      <c r="BA12" s="50"/>
-    </row>
-    <row r="13" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="78"/>
-      <c r="B13" s="78"/>
-      <c r="C13" s="74"/>
-      <c r="D13" s="74"/>
-      <c r="E13" s="74"/>
-      <c r="F13" s="74"/>
-      <c r="G13" s="74"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-      <c r="K13" s="57"/>
-      <c r="L13" s="57"/>
-      <c r="M13" s="58"/>
-      <c r="N13" s="75"/>
-      <c r="O13" s="76"/>
-      <c r="P13" s="76"/>
-      <c r="Q13" s="76"/>
-      <c r="R13" s="76"/>
-      <c r="S13" s="76"/>
-      <c r="T13" s="76"/>
-      <c r="U13" s="76"/>
-      <c r="V13" s="76"/>
-      <c r="W13" s="76"/>
-      <c r="X13" s="77"/>
-      <c r="Y13" s="75"/>
-      <c r="Z13" s="76"/>
-      <c r="AA13" s="76"/>
-      <c r="AB13" s="76"/>
-      <c r="AC13" s="76"/>
-      <c r="AD13" s="76"/>
-      <c r="AE13" s="76"/>
-      <c r="AF13" s="76"/>
-      <c r="AG13" s="76"/>
-      <c r="AH13" s="76"/>
-      <c r="AI13" s="76"/>
-      <c r="AJ13" s="76"/>
-      <c r="AK13" s="76"/>
-      <c r="AL13" s="76"/>
-      <c r="AM13" s="76"/>
-      <c r="AN13" s="76"/>
-      <c r="AO13" s="76"/>
-      <c r="AP13" s="76"/>
-      <c r="AQ13" s="76"/>
-      <c r="AR13" s="76"/>
-      <c r="AS13" s="76"/>
-      <c r="AT13" s="76"/>
-      <c r="AU13" s="76"/>
-      <c r="AV13" s="76"/>
-      <c r="AW13" s="77"/>
-      <c r="AX13" s="49"/>
-      <c r="AY13" s="49"/>
-      <c r="AZ13" s="49"/>
-      <c r="BA13" s="50"/>
-    </row>
-    <row r="14" spans="1:53" s="51" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="78"/>
-      <c r="B14" s="78"/>
-      <c r="C14" s="74"/>
-      <c r="D14" s="74"/>
-      <c r="E14" s="74"/>
-      <c r="F14" s="74"/>
-      <c r="G14" s="74"/>
-      <c r="H14" s="56"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-      <c r="K14" s="57"/>
-      <c r="L14" s="57"/>
-      <c r="M14" s="58"/>
-      <c r="N14" s="75"/>
-      <c r="O14" s="76"/>
-      <c r="P14" s="76"/>
-      <c r="Q14" s="76"/>
-      <c r="R14" s="76"/>
-      <c r="S14" s="76"/>
-      <c r="T14" s="76"/>
-      <c r="U14" s="76"/>
-      <c r="V14" s="76"/>
-      <c r="W14" s="76"/>
-      <c r="X14" s="77"/>
-      <c r="Y14" s="75"/>
-      <c r="Z14" s="76"/>
-      <c r="AA14" s="76"/>
-      <c r="AB14" s="76"/>
-      <c r="AC14" s="76"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-      <c r="AG14" s="76"/>
-      <c r="AH14" s="76"/>
-      <c r="AI14" s="76"/>
-      <c r="AJ14" s="76"/>
-      <c r="AK14" s="76"/>
-      <c r="AL14" s="76"/>
-      <c r="AM14" s="76"/>
-      <c r="AN14" s="76"/>
-      <c r="AO14" s="76"/>
-      <c r="AP14" s="76"/>
-      <c r="AQ14" s="76"/>
-      <c r="AR14" s="76"/>
-      <c r="AS14" s="76"/>
-      <c r="AT14" s="76"/>
-      <c r="AU14" s="76"/>
-      <c r="AV14" s="76"/>
-      <c r="AW14" s="77"/>
-      <c r="AX14" s="49"/>
-      <c r="AY14" s="49"/>
-      <c r="AZ14" s="49"/>
-      <c r="BA14" s="50"/>
+    <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="93"/>
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="94"/>
+      <c r="E14" s="94"/>
+      <c r="F14" s="94"/>
+      <c r="G14" s="94"/>
+      <c r="H14" s="84"/>
+      <c r="I14" s="85"/>
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85"/>
+      <c r="M14" s="86"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="87"/>
+      <c r="P14" s="87"/>
+      <c r="Q14" s="87"/>
+      <c r="R14" s="87"/>
+      <c r="S14" s="87"/>
+      <c r="T14" s="87"/>
+      <c r="U14" s="87"/>
+      <c r="V14" s="87"/>
+      <c r="W14" s="87"/>
+      <c r="X14" s="88"/>
+      <c r="Y14" s="95"/>
+      <c r="Z14" s="87"/>
+      <c r="AA14" s="87"/>
+      <c r="AB14" s="87"/>
+      <c r="AC14" s="87"/>
+      <c r="AD14" s="87"/>
+      <c r="AE14" s="87"/>
+      <c r="AF14" s="87"/>
+      <c r="AG14" s="87"/>
+      <c r="AH14" s="87"/>
+      <c r="AI14" s="87"/>
+      <c r="AJ14" s="87"/>
+      <c r="AK14" s="87"/>
+      <c r="AL14" s="87"/>
+      <c r="AM14" s="87"/>
+      <c r="AN14" s="87"/>
+      <c r="AO14" s="87"/>
+      <c r="AP14" s="87"/>
+      <c r="AQ14" s="87"/>
+      <c r="AR14" s="87"/>
+      <c r="AS14" s="87"/>
+      <c r="AT14" s="87"/>
+      <c r="AU14" s="87"/>
+      <c r="AV14" s="87"/>
+      <c r="AW14" s="88"/>
+      <c r="AX14" s="90"/>
+      <c r="AY14" s="90"/>
+      <c r="AZ14" s="90"/>
+      <c r="BA14" s="91"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
+      <c r="C15" s="91"/>
+      <c r="D15" s="91"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
+      <c r="C16" s="91"/>
+      <c r="D16" s="91"/>
     </row>
     <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="48"/>
-      <c r="D17" s="48"/>
+      <c r="C17" s="91"/>
+      <c r="D17" s="91"/>
     </row>
     <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="48"/>
-      <c r="D18" s="48"/>
+      <c r="C18" s="91"/>
+      <c r="D18" s="91"/>
     </row>
   </sheetData>
   <mergeCells count="64">
-    <mergeCell ref="A7:B7"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="A9:B9"/>
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="H8:M8"/>
-    <mergeCell ref="H9:M9"/>
-    <mergeCell ref="N10:X10"/>
-    <mergeCell ref="AT2:AW3"/>
-    <mergeCell ref="AP2:AS3"/>
-    <mergeCell ref="N8:X8"/>
-    <mergeCell ref="Y8:AW8"/>
-    <mergeCell ref="N7:X7"/>
-    <mergeCell ref="Y6:AW6"/>
-    <mergeCell ref="Y5:AW5"/>
-    <mergeCell ref="Y7:AW7"/>
-    <mergeCell ref="A13:B13"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="C14:G14"/>
-    <mergeCell ref="N13:X13"/>
-    <mergeCell ref="Y13:AW13"/>
-    <mergeCell ref="N14:X14"/>
-    <mergeCell ref="Y14:AW14"/>
-    <mergeCell ref="H13:M13"/>
-    <mergeCell ref="H14:M14"/>
-    <mergeCell ref="C13:G13"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="Y12:AW12"/>
-    <mergeCell ref="H11:M11"/>
-    <mergeCell ref="Y10:AW10"/>
-    <mergeCell ref="N9:X9"/>
-    <mergeCell ref="Y9:AW9"/>
-    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="C6:G6"/>
+    <mergeCell ref="G2:O3"/>
+    <mergeCell ref="G1:O1"/>
+    <mergeCell ref="H5:M5"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="H6:M6"/>
+    <mergeCell ref="C5:G5"/>
+    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AH2:AK3"/>
+    <mergeCell ref="P2:AG3"/>
+    <mergeCell ref="P1:AG1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A2:F3"/>
     <mergeCell ref="AT1:AW1"/>
     <mergeCell ref="AL1:AO1"/>
     <mergeCell ref="AP1:AS1"/>
@@ -5998,22 +5934,39 @@
     <mergeCell ref="Y11:AW11"/>
     <mergeCell ref="H12:M12"/>
     <mergeCell ref="N12:X12"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="Y12:AW12"/>
+    <mergeCell ref="H11:M11"/>
+    <mergeCell ref="Y10:AW10"/>
+    <mergeCell ref="N9:X9"/>
+    <mergeCell ref="Y9:AW9"/>
+    <mergeCell ref="A12:B12"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="C14:G14"/>
+    <mergeCell ref="N13:X13"/>
+    <mergeCell ref="Y13:AW13"/>
+    <mergeCell ref="N14:X14"/>
+    <mergeCell ref="Y14:AW14"/>
+    <mergeCell ref="H13:M13"/>
+    <mergeCell ref="H14:M14"/>
+    <mergeCell ref="C13:G13"/>
+    <mergeCell ref="N10:X10"/>
+    <mergeCell ref="AT2:AW3"/>
+    <mergeCell ref="AP2:AS3"/>
+    <mergeCell ref="N8:X8"/>
+    <mergeCell ref="Y8:AW8"/>
+    <mergeCell ref="N7:X7"/>
+    <mergeCell ref="Y6:AW6"/>
+    <mergeCell ref="Y5:AW5"/>
+    <mergeCell ref="Y7:AW7"/>
     <mergeCell ref="AL2:AO3"/>
-    <mergeCell ref="AH1:AK1"/>
-    <mergeCell ref="AH2:AK3"/>
-    <mergeCell ref="P2:AG3"/>
-    <mergeCell ref="P1:AG1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F3"/>
-    <mergeCell ref="C6:G6"/>
-    <mergeCell ref="G2:O3"/>
-    <mergeCell ref="G1:O1"/>
-    <mergeCell ref="H5:M5"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="A5:B5"/>
-    <mergeCell ref="H6:M6"/>
-    <mergeCell ref="C5:G5"/>
-    <mergeCell ref="N5:X5"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="H8:M8"/>
+    <mergeCell ref="H9:M9"/>
   </mergeCells>
   <phoneticPr fontId="44"/>
   <dataValidations count="3">
@@ -6042,8 +5995,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6061,65 +6014,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="84" t="s">
-        <v>84</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="41" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="84" t="s">
-        <v>83</v>
-      </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="41" t="s">
+        <v>80</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6138,43 +6091,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6183,13 +6136,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="5">
         <v>32</v>
@@ -6213,13 +6166,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="5">
         <v>32</v>
@@ -6239,13 +6192,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="5">
         <v>256</v>
@@ -6265,13 +6218,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="5">
         <v>256</v>
@@ -6291,13 +6244,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -6310,7 +6263,7 @@
       <c r="K10" s="8"/>
       <c r="L10" s="9"/>
       <c r="M10" s="5" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6319,13 +6272,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E11" s="5">
         <v>16</v>
@@ -6337,7 +6290,7 @@
       <c r="J11" s="8"/>
       <c r="K11" s="8"/>
       <c r="L11" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M11" s="5"/>
     </row>
@@ -6347,13 +6300,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E12" s="5">
         <v>64</v>
@@ -6365,7 +6318,7 @@
       <c r="J12" s="8"/>
       <c r="K12" s="8"/>
       <c r="L12" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M12" s="5"/>
     </row>
@@ -6375,13 +6328,13 @@
         <v>8</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E13" s="5">
         <v>256</v>
@@ -6394,7 +6347,7 @@
       <c r="K13" s="8"/>
       <c r="L13" s="9"/>
       <c r="M13" s="5" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.15">
@@ -6403,13 +6356,13 @@
         <v>9</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E14" s="5">
         <v>256</v>
@@ -6429,13 +6382,13 @@
         <v>10</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E15" s="5">
         <v>1</v>
@@ -6448,7 +6401,7 @@
       <c r="K15" s="8"/>
       <c r="L15" s="9"/>
       <c r="M15" s="5" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.15">
@@ -6483,7 +6436,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 F11:G13">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 F11:G13 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L9 L11:L13">
@@ -6511,8 +6464,8 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6531,65 +6484,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="84" t="s">
-        <v>85</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="41" t="s">
+        <v>82</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="84" t="s">
-        <v>86</v>
-      </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="41" t="s">
+        <v>83</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6608,43 +6561,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6653,13 +6606,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="12" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="12">
         <v>32</v>
@@ -6683,13 +6636,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="12">
         <v>64</v>
@@ -6709,13 +6662,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D8" s="13" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="12">
         <v>128</v>
@@ -6761,7 +6714,7 @@
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9">
@@ -6789,8 +6742,8 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6808,65 +6761,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="91" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="84" t="s">
-        <v>88</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="91" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="91"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="45" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="45"/>
+      <c r="C1" s="41" t="s">
+        <v>85</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="84" t="s">
-        <v>87</v>
-      </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="90" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="90"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="44" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="44"/>
+      <c r="C2" s="41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="90" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="90"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="90" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="90"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="44" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="44"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6885,43 +6838,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -6930,13 +6883,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="18">
         <v>32</v>
@@ -6960,13 +6913,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="18">
         <v>32</v>
@@ -7016,7 +6969,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G8 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D8">
@@ -7044,8 +6997,8 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7065,65 +7018,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="84" t="s">
-        <v>89</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="41" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="100" t="s">
-        <v>90</v>
-      </c>
-      <c r="D2" s="101"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="52" t="s">
+        <v>87</v>
+      </c>
+      <c r="D2" s="53"/>
+      <c r="E2" s="53"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7142,43 +7095,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7187,13 +7140,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C6" s="24" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D6" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="24">
         <v>32</v>
@@ -7217,13 +7170,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C7" s="24" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D7" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E7" s="24">
         <v>2</v>
@@ -7240,7 +7193,7 @@
       <c r="K7" s="27"/>
       <c r="L7" s="28"/>
       <c r="M7" s="24" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.15">
@@ -7249,13 +7202,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C8" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="C8" s="24" t="s">
-        <v>52</v>
-      </c>
       <c r="D8" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E8" s="24">
         <v>64</v>
@@ -7268,7 +7221,7 @@
       <c r="K8" s="27"/>
       <c r="L8" s="28"/>
       <c r="M8" s="24" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.15">
@@ -7277,13 +7230,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D9" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E9" s="24">
         <v>64</v>
@@ -7296,7 +7249,7 @@
       <c r="K9" s="27"/>
       <c r="L9" s="28"/>
       <c r="M9" s="24" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7305,13 +7258,13 @@
         <v>5</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E10" s="24">
         <v>1024</v>
@@ -7324,7 +7277,7 @@
       <c r="K10" s="27"/>
       <c r="L10" s="28"/>
       <c r="M10" s="24" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.15">
@@ -7333,13 +7286,13 @@
         <v>6</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C11" s="24" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="D11" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E11" s="24">
         <v>8</v>
@@ -7352,7 +7305,7 @@
       <c r="K11" s="27"/>
       <c r="L11" s="28"/>
       <c r="M11" s="24" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.15">
@@ -7361,13 +7314,13 @@
         <v>7</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C12" s="24" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E12" s="24">
         <v>1</v>
@@ -7380,7 +7333,7 @@
       <c r="K12" s="27"/>
       <c r="L12" s="28"/>
       <c r="M12" s="24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.15">
@@ -7415,7 +7368,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G12">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G12 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L6:L12">
@@ -7443,8 +7396,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="J19" sqref="J19"/>
+    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7463,65 +7416,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="92" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="D1" s="85"/>
-      <c r="E1" s="85"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="94" t="s">
-        <v>1</v>
-      </c>
-      <c r="H1" s="94"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="82"/>
-      <c r="L1" s="82"/>
-      <c r="M1" s="83"/>
+      <c r="A1" s="46" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="D1" s="42"/>
+      <c r="E1" s="42"/>
+      <c r="F1" s="43"/>
+      <c r="G1" s="54" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="54"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="55"/>
+      <c r="M1" s="55"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="95" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="96"/>
-      <c r="C2" s="84" t="s">
-        <v>91</v>
-      </c>
-      <c r="D2" s="85"/>
-      <c r="E2" s="85"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="94"/>
-      <c r="I2" s="81"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="82"/>
-      <c r="L2" s="82"/>
-      <c r="M2" s="83"/>
+      <c r="A2" s="48" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="49"/>
+      <c r="C2" s="41" t="s">
+        <v>88</v>
+      </c>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="54" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" s="54"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="55"/>
+      <c r="M2" s="55"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="97" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="98"/>
-      <c r="C3" s="87"/>
-      <c r="D3" s="88"/>
-      <c r="E3" s="88"/>
-      <c r="F3" s="89"/>
-      <c r="G3" s="99" t="s">
-        <v>3</v>
-      </c>
-      <c r="H3" s="97"/>
-      <c r="I3" s="81"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="82"/>
-      <c r="L3" s="82"/>
-      <c r="M3" s="83"/>
+      <c r="A3" s="50" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="59"/>
+      <c r="E3" s="59"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="56" t="s">
+        <v>109</v>
+      </c>
+      <c r="H3" s="56"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="K3" s="57"/>
+      <c r="L3" s="57"/>
+      <c r="M3" s="57"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7540,43 +7493,43 @@
     </row>
     <row r="5" spans="1:13" ht="20.25" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="37" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B5" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="38" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F5" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="38" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="38" t="s">
+      <c r="G5" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="38" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="38" t="s">
+        <v>34</v>
+      </c>
+      <c r="J5" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="K5" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="L5" s="38" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" s="39" t="s">
         <v>6</v>
-      </c>
-      <c r="E5" s="38" t="s">
-        <v>7</v>
-      </c>
-      <c r="F5" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="G5" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>37</v>
-      </c>
-      <c r="J5" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="K5" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="L5" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="M5" s="39" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
@@ -7585,13 +7538,13 @@
         <v>1</v>
       </c>
       <c r="B6" s="30" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C6" s="30" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D6" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E6" s="30">
         <v>32</v>
@@ -7615,13 +7568,13 @@
         <v>2</v>
       </c>
       <c r="B7" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C7" s="30" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" s="31" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="E7" s="30">
         <v>32</v>
@@ -7645,13 +7598,13 @@
         <v>3</v>
       </c>
       <c r="B8" s="30" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C8" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D8" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E8" s="30">
         <v>2</v>
@@ -7675,13 +7628,13 @@
         <v>4</v>
       </c>
       <c r="B9" s="30" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D9" s="31" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="E9" s="30">
         <v>2</v>
@@ -7693,14 +7646,14 @@
         <v>0</v>
       </c>
       <c r="H9" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="I9" s="33"/>
       <c r="J9" s="33"/>
       <c r="K9" s="33"/>
       <c r="L9" s="34"/>
       <c r="M9" s="30" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.15">
@@ -7735,7 +7688,7 @@
   </mergeCells>
   <phoneticPr fontId="52" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C3 F6:G9 I3">
       <formula1>"○"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D9">

--- a/input/design-table/org.umeframework.ems.uac.entity/DB设计-UME基础用户表_v1.0.xlsx
+++ b/input/design-table/org.umeframework.ems.uac.entity/DB设计-UME基础用户表_v1.0.xlsx
@@ -1608,7 +1608,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="816">
+  <cellStyleXfs count="817">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3603,6 +3603,9 @@
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="84" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="96">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -3728,6 +3731,114 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="2" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="18" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="14" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="16" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="14" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="16" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="18" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="15" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="17" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="18" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="15" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="20" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="21" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="0" borderId="22" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="102" fillId="27" borderId="19" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="98" fillId="0" borderId="6" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3737,12 +3848,30 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="7" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="98" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="101" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="100" fillId="26" borderId="8" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3767,134 +3896,8 @@
     <xf numFmtId="0" fontId="98" fillId="0" borderId="2" xfId="763" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="101" fillId="26" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="0" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="101" fillId="25" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="3" xfId="762" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="98" fillId="28" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="6" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="2" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="14" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="15" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="16" xfId="760" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="17" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="18" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="18" xfId="760" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="102" fillId="0" borderId="18" xfId="760" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="760" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="19" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="14" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="15" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="20" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="27" borderId="16" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="21" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="22" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="102" fillId="0" borderId="6" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="102" fillId="0" borderId="2" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="102" fillId="0" borderId="7" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="2" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="7" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="0" xfId="764" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="3" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="102" fillId="0" borderId="3" xfId="764" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="102" fillId="0" borderId="6" xfId="764" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="816">
+  <cellStyles count="817">
     <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書" xfId="1"/>
     <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書 2" xfId="2"/>
     <cellStyle name="_20050721　沖縄海邦_格付自己査定　計画書 3" xfId="3"/>
@@ -4225,6 +4228,7 @@
     <cellStyle name="Normal - Style1 7" xfId="327"/>
     <cellStyle name="Normal - Style1 8" xfId="328"/>
     <cellStyle name="Normal 2" xfId="329"/>
+    <cellStyle name="Normal 2 2" xfId="816"/>
     <cellStyle name="Normal 3" xfId="330"/>
     <cellStyle name="Normal 4" xfId="331"/>
     <cellStyle name="Normal 5" xfId="332"/>
@@ -5117,789 +5121,789 @@
   </sheetPr>
   <dimension ref="A1:BA18"/>
   <sheetViews>
-    <sheetView showGridLines="0" showZeros="0" tabSelected="1" showRuler="0" zoomScaleSheetLayoutView="75" workbookViewId="0">
+    <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScaleSheetLayoutView="75" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B35" sqref="B35"/>
-      <selection pane="bottomLeft" activeCell="N20" sqref="N20"/>
+      <selection pane="bottomLeft" activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="3.3984375" defaultRowHeight="18" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.3984375" style="92"/>
+    <col min="1" max="16384" width="3.3984375" style="49"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:53" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="61" t="s">
+    <row r="1" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="66" t="s">
         <v>11</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="63" t="s">
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="62" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63" t="s">
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+      <c r="J1" s="62"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
+      <c r="M1" s="62"/>
+      <c r="N1" s="62"/>
+      <c r="O1" s="62"/>
+      <c r="P1" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="63" t="s">
+      <c r="Q1" s="62"/>
+      <c r="R1" s="62"/>
+      <c r="S1" s="62"/>
+      <c r="T1" s="62"/>
+      <c r="U1" s="62"/>
+      <c r="V1" s="62"/>
+      <c r="W1" s="62"/>
+      <c r="X1" s="62"/>
+      <c r="Y1" s="62"/>
+      <c r="Z1" s="62"/>
+      <c r="AA1" s="62"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="62"/>
+      <c r="AD1" s="62"/>
+      <c r="AE1" s="62"/>
+      <c r="AF1" s="62"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63" t="s">
+      <c r="AI1" s="62"/>
+      <c r="AJ1" s="62"/>
+      <c r="AK1" s="62"/>
+      <c r="AL1" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
-      <c r="AO1" s="63"/>
-      <c r="AP1" s="63" t="s">
+      <c r="AM1" s="62"/>
+      <c r="AN1" s="62"/>
+      <c r="AO1" s="62"/>
+      <c r="AP1" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="AQ1" s="63"/>
-      <c r="AR1" s="63"/>
-      <c r="AS1" s="63"/>
-      <c r="AT1" s="63" t="s">
+      <c r="AQ1" s="62"/>
+      <c r="AR1" s="62"/>
+      <c r="AS1" s="62"/>
+      <c r="AT1" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="AU1" s="63"/>
-      <c r="AV1" s="63"/>
-      <c r="AW1" s="65"/>
+      <c r="AU1" s="62"/>
+      <c r="AV1" s="62"/>
+      <c r="AW1" s="63"/>
     </row>
-    <row r="2" spans="1:53" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="67" t="s">
+    <row r="2" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68">
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="69">
         <v>20150001</v>
       </c>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="69" t="s">
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="70">
-        <v>42796</v>
-      </c>
-      <c r="AI2" s="70"/>
-      <c r="AJ2" s="70"/>
-      <c r="AK2" s="70"/>
-      <c r="AL2" s="70" t="s">
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="54">
+        <v>42948</v>
+      </c>
+      <c r="AI2" s="54"/>
+      <c r="AJ2" s="54"/>
+      <c r="AK2" s="54"/>
+      <c r="AL2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AM2" s="70"/>
-      <c r="AN2" s="70"/>
-      <c r="AO2" s="70"/>
-      <c r="AP2" s="70">
-        <v>42796</v>
-      </c>
-      <c r="AQ2" s="70"/>
-      <c r="AR2" s="70"/>
-      <c r="AS2" s="70"/>
-      <c r="AT2" s="70" t="s">
+      <c r="AM2" s="54"/>
+      <c r="AN2" s="54"/>
+      <c r="AO2" s="54"/>
+      <c r="AP2" s="54">
+        <v>42948</v>
+      </c>
+      <c r="AQ2" s="54"/>
+      <c r="AR2" s="54"/>
+      <c r="AS2" s="54"/>
+      <c r="AT2" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="AU2" s="70"/>
-      <c r="AV2" s="70"/>
-      <c r="AW2" s="70"/>
+      <c r="AU2" s="54"/>
+      <c r="AV2" s="54"/>
+      <c r="AW2" s="54"/>
     </row>
-    <row r="3" spans="1:53" s="66" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="67"/>
-      <c r="B3" s="67"/>
-      <c r="C3" s="67"/>
-      <c r="D3" s="67"/>
-      <c r="E3" s="67"/>
-      <c r="F3" s="67"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
-      <c r="K3" s="68"/>
-      <c r="L3" s="68"/>
-      <c r="M3" s="68"/>
-      <c r="N3" s="68"/>
-      <c r="O3" s="68"/>
-      <c r="P3" s="69"/>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
-      <c r="AO3" s="70"/>
-      <c r="AP3" s="70"/>
-      <c r="AQ3" s="70"/>
-      <c r="AR3" s="70"/>
-      <c r="AS3" s="70"/>
-      <c r="AT3" s="70"/>
-      <c r="AU3" s="70"/>
-      <c r="AV3" s="70"/>
-      <c r="AW3" s="70"/>
+    <row r="3" spans="1:53" s="41" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="68"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="69"/>
+      <c r="O3" s="69"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="64"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
     </row>
-    <row r="4" spans="1:53" s="71" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C4" s="72"/>
-      <c r="AL4" s="71" t="s">
+    <row r="4" spans="1:53" s="42" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="C4" s="43"/>
+      <c r="AL4" s="42" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="5" spans="1:53" s="81" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="73" t="s">
+    <row r="5" spans="1:53" s="46" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="74"/>
-      <c r="C5" s="74" t="s">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="74"/>
-      <c r="E5" s="74"/>
-      <c r="F5" s="74"/>
-      <c r="G5" s="74"/>
-      <c r="H5" s="75" t="s">
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="59"/>
+      <c r="G5" s="59"/>
+      <c r="H5" s="70" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="76"/>
-      <c r="J5" s="76"/>
-      <c r="K5" s="76"/>
-      <c r="L5" s="76"/>
-      <c r="M5" s="77"/>
-      <c r="N5" s="75" t="s">
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="71"/>
+      <c r="M5" s="72"/>
+      <c r="N5" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
-      <c r="Q5" s="76"/>
-      <c r="R5" s="76"/>
-      <c r="S5" s="76"/>
-      <c r="T5" s="76"/>
-      <c r="U5" s="76"/>
-      <c r="V5" s="76"/>
-      <c r="W5" s="76"/>
-      <c r="X5" s="77"/>
-      <c r="Y5" s="74" t="s">
+      <c r="O5" s="71"/>
+      <c r="P5" s="71"/>
+      <c r="Q5" s="71"/>
+      <c r="R5" s="71"/>
+      <c r="S5" s="71"/>
+      <c r="T5" s="71"/>
+      <c r="U5" s="71"/>
+      <c r="V5" s="71"/>
+      <c r="W5" s="71"/>
+      <c r="X5" s="72"/>
+      <c r="Y5" s="59" t="s">
         <v>21</v>
       </c>
-      <c r="Z5" s="74"/>
-      <c r="AA5" s="74"/>
-      <c r="AB5" s="74"/>
-      <c r="AC5" s="74"/>
-      <c r="AD5" s="74"/>
-      <c r="AE5" s="74"/>
-      <c r="AF5" s="74"/>
-      <c r="AG5" s="74"/>
-      <c r="AH5" s="74"/>
-      <c r="AI5" s="74"/>
-      <c r="AJ5" s="74"/>
-      <c r="AK5" s="74"/>
-      <c r="AL5" s="74"/>
-      <c r="AM5" s="74"/>
-      <c r="AN5" s="74"/>
-      <c r="AO5" s="74"/>
-      <c r="AP5" s="74"/>
-      <c r="AQ5" s="74"/>
-      <c r="AR5" s="74"/>
-      <c r="AS5" s="74"/>
-      <c r="AT5" s="74"/>
-      <c r="AU5" s="74"/>
-      <c r="AV5" s="74"/>
-      <c r="AW5" s="78"/>
-      <c r="AX5" s="79"/>
-      <c r="AY5" s="79"/>
-      <c r="AZ5" s="79"/>
-      <c r="BA5" s="80"/>
+      <c r="Z5" s="59"/>
+      <c r="AA5" s="59"/>
+      <c r="AB5" s="59"/>
+      <c r="AC5" s="59"/>
+      <c r="AD5" s="59"/>
+      <c r="AE5" s="59"/>
+      <c r="AF5" s="59"/>
+      <c r="AG5" s="59"/>
+      <c r="AH5" s="59"/>
+      <c r="AI5" s="59"/>
+      <c r="AJ5" s="59"/>
+      <c r="AK5" s="59"/>
+      <c r="AL5" s="59"/>
+      <c r="AM5" s="59"/>
+      <c r="AN5" s="59"/>
+      <c r="AO5" s="59"/>
+      <c r="AP5" s="59"/>
+      <c r="AQ5" s="59"/>
+      <c r="AR5" s="59"/>
+      <c r="AS5" s="59"/>
+      <c r="AT5" s="59"/>
+      <c r="AU5" s="59"/>
+      <c r="AV5" s="59"/>
+      <c r="AW5" s="60"/>
+      <c r="AX5" s="44"/>
+      <c r="AY5" s="44"/>
+      <c r="AZ5" s="44"/>
+      <c r="BA5" s="45"/>
     </row>
     <row r="6" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="82">
+      <c r="A6" s="73">
         <v>1</v>
       </c>
-      <c r="B6" s="83"/>
-      <c r="C6" s="84">
-        <v>42796</v>
-      </c>
-      <c r="D6" s="85"/>
-      <c r="E6" s="85"/>
-      <c r="F6" s="85"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="84" t="s">
+      <c r="B6" s="74"/>
+      <c r="C6" s="51">
+        <v>42948</v>
+      </c>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="53"/>
+      <c r="H6" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="86"/>
-      <c r="N6" s="87" t="s">
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O6" s="87"/>
-      <c r="P6" s="87"/>
-      <c r="Q6" s="87"/>
-      <c r="R6" s="87"/>
-      <c r="S6" s="87"/>
-      <c r="T6" s="87"/>
-      <c r="U6" s="87"/>
-      <c r="V6" s="87"/>
-      <c r="W6" s="87"/>
-      <c r="X6" s="88"/>
-      <c r="Y6" s="89" t="s">
+      <c r="O6" s="56"/>
+      <c r="P6" s="56"/>
+      <c r="Q6" s="56"/>
+      <c r="R6" s="56"/>
+      <c r="S6" s="56"/>
+      <c r="T6" s="56"/>
+      <c r="U6" s="56"/>
+      <c r="V6" s="56"/>
+      <c r="W6" s="56"/>
+      <c r="X6" s="57"/>
+      <c r="Y6" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="Z6" s="87"/>
-      <c r="AA6" s="87"/>
-      <c r="AB6" s="87"/>
-      <c r="AC6" s="87"/>
-      <c r="AD6" s="87"/>
-      <c r="AE6" s="87"/>
-      <c r="AF6" s="87"/>
-      <c r="AG6" s="87"/>
-      <c r="AH6" s="87"/>
-      <c r="AI6" s="87"/>
-      <c r="AJ6" s="87"/>
-      <c r="AK6" s="87"/>
-      <c r="AL6" s="87"/>
-      <c r="AM6" s="87"/>
-      <c r="AN6" s="87"/>
-      <c r="AO6" s="87"/>
-      <c r="AP6" s="87"/>
-      <c r="AQ6" s="87"/>
-      <c r="AR6" s="87"/>
-      <c r="AS6" s="87"/>
-      <c r="AT6" s="87"/>
-      <c r="AU6" s="87"/>
-      <c r="AV6" s="87"/>
-      <c r="AW6" s="88"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="91"/>
+      <c r="Z6" s="56"/>
+      <c r="AA6" s="56"/>
+      <c r="AB6" s="56"/>
+      <c r="AC6" s="56"/>
+      <c r="AD6" s="56"/>
+      <c r="AE6" s="56"/>
+      <c r="AF6" s="56"/>
+      <c r="AG6" s="56"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="56"/>
+      <c r="AU6" s="56"/>
+      <c r="AV6" s="56"/>
+      <c r="AW6" s="57"/>
+      <c r="AX6" s="47"/>
+      <c r="AY6" s="47"/>
+      <c r="AZ6" s="47"/>
+      <c r="BA6" s="48"/>
     </row>
     <row r="7" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="93"/>
-      <c r="B7" s="93"/>
-      <c r="C7" s="94"/>
-      <c r="D7" s="94"/>
-      <c r="E7" s="94"/>
-      <c r="F7" s="94"/>
-      <c r="G7" s="94"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="85"/>
-      <c r="M7" s="86"/>
-      <c r="N7" s="95"/>
-      <c r="O7" s="87"/>
-      <c r="P7" s="87"/>
-      <c r="Q7" s="87"/>
-      <c r="R7" s="87"/>
-      <c r="S7" s="87"/>
-      <c r="T7" s="87"/>
-      <c r="U7" s="87"/>
-      <c r="V7" s="87"/>
-      <c r="W7" s="87"/>
-      <c r="X7" s="88"/>
-      <c r="Y7" s="89"/>
-      <c r="Z7" s="87"/>
-      <c r="AA7" s="87"/>
-      <c r="AB7" s="87"/>
-      <c r="AC7" s="87"/>
-      <c r="AD7" s="87"/>
-      <c r="AE7" s="87"/>
-      <c r="AF7" s="87"/>
-      <c r="AG7" s="87"/>
-      <c r="AH7" s="87"/>
-      <c r="AI7" s="87"/>
-      <c r="AJ7" s="87"/>
-      <c r="AK7" s="87"/>
-      <c r="AL7" s="87"/>
-      <c r="AM7" s="87"/>
-      <c r="AN7" s="87"/>
-      <c r="AO7" s="87"/>
-      <c r="AP7" s="87"/>
-      <c r="AQ7" s="87"/>
-      <c r="AR7" s="87"/>
-      <c r="AS7" s="87"/>
-      <c r="AT7" s="87"/>
-      <c r="AU7" s="87"/>
-      <c r="AV7" s="87"/>
-      <c r="AW7" s="88"/>
-      <c r="AX7" s="90"/>
-      <c r="AY7" s="90"/>
-      <c r="AZ7" s="90"/>
-      <c r="BA7" s="91"/>
+      <c r="A7" s="50"/>
+      <c r="B7" s="50"/>
+      <c r="C7" s="61"/>
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="55"/>
+      <c r="O7" s="56"/>
+      <c r="P7" s="56"/>
+      <c r="Q7" s="56"/>
+      <c r="R7" s="56"/>
+      <c r="S7" s="56"/>
+      <c r="T7" s="56"/>
+      <c r="U7" s="56"/>
+      <c r="V7" s="56"/>
+      <c r="W7" s="56"/>
+      <c r="X7" s="57"/>
+      <c r="Y7" s="58"/>
+      <c r="Z7" s="56"/>
+      <c r="AA7" s="56"/>
+      <c r="AB7" s="56"/>
+      <c r="AC7" s="56"/>
+      <c r="AD7" s="56"/>
+      <c r="AE7" s="56"/>
+      <c r="AF7" s="56"/>
+      <c r="AG7" s="56"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="56"/>
+      <c r="AU7" s="56"/>
+      <c r="AV7" s="56"/>
+      <c r="AW7" s="57"/>
+      <c r="AX7" s="47"/>
+      <c r="AY7" s="47"/>
+      <c r="AZ7" s="47"/>
+      <c r="BA7" s="48"/>
     </row>
     <row r="8" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="93"/>
-      <c r="B8" s="93"/>
-      <c r="C8" s="94"/>
-      <c r="D8" s="94"/>
-      <c r="E8" s="94"/>
-      <c r="F8" s="94"/>
-      <c r="G8" s="94"/>
-      <c r="H8" s="84"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="85"/>
-      <c r="M8" s="86"/>
-      <c r="N8" s="95"/>
-      <c r="O8" s="87"/>
-      <c r="P8" s="87"/>
-      <c r="Q8" s="87"/>
-      <c r="R8" s="87"/>
-      <c r="S8" s="87"/>
-      <c r="T8" s="87"/>
-      <c r="U8" s="87"/>
-      <c r="V8" s="87"/>
-      <c r="W8" s="87"/>
-      <c r="X8" s="88"/>
-      <c r="Y8" s="95"/>
-      <c r="Z8" s="87"/>
-      <c r="AA8" s="87"/>
-      <c r="AB8" s="87"/>
-      <c r="AC8" s="87"/>
-      <c r="AD8" s="87"/>
-      <c r="AE8" s="87"/>
-      <c r="AF8" s="87"/>
-      <c r="AG8" s="87"/>
-      <c r="AH8" s="87"/>
-      <c r="AI8" s="87"/>
-      <c r="AJ8" s="87"/>
-      <c r="AK8" s="87"/>
-      <c r="AL8" s="87"/>
-      <c r="AM8" s="87"/>
-      <c r="AN8" s="87"/>
-      <c r="AO8" s="87"/>
-      <c r="AP8" s="87"/>
-      <c r="AQ8" s="87"/>
-      <c r="AR8" s="87"/>
-      <c r="AS8" s="87"/>
-      <c r="AT8" s="87"/>
-      <c r="AU8" s="87"/>
-      <c r="AV8" s="87"/>
-      <c r="AW8" s="88"/>
-      <c r="AX8" s="90"/>
-      <c r="AY8" s="90"/>
-      <c r="AZ8" s="90"/>
-      <c r="BA8" s="91"/>
+      <c r="A8" s="50"/>
+      <c r="B8" s="50"/>
+      <c r="C8" s="61"/>
+      <c r="D8" s="61"/>
+      <c r="E8" s="61"/>
+      <c r="F8" s="61"/>
+      <c r="G8" s="61"/>
+      <c r="H8" s="51"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
+      <c r="M8" s="53"/>
+      <c r="N8" s="55"/>
+      <c r="O8" s="56"/>
+      <c r="P8" s="56"/>
+      <c r="Q8" s="56"/>
+      <c r="R8" s="56"/>
+      <c r="S8" s="56"/>
+      <c r="T8" s="56"/>
+      <c r="U8" s="56"/>
+      <c r="V8" s="56"/>
+      <c r="W8" s="56"/>
+      <c r="X8" s="57"/>
+      <c r="Y8" s="55"/>
+      <c r="Z8" s="56"/>
+      <c r="AA8" s="56"/>
+      <c r="AB8" s="56"/>
+      <c r="AC8" s="56"/>
+      <c r="AD8" s="56"/>
+      <c r="AE8" s="56"/>
+      <c r="AF8" s="56"/>
+      <c r="AG8" s="56"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="56"/>
+      <c r="AU8" s="56"/>
+      <c r="AV8" s="56"/>
+      <c r="AW8" s="57"/>
+      <c r="AX8" s="47"/>
+      <c r="AY8" s="47"/>
+      <c r="AZ8" s="47"/>
+      <c r="BA8" s="48"/>
     </row>
     <row r="9" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="93"/>
-      <c r="B9" s="93"/>
-      <c r="C9" s="94"/>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="94"/>
-      <c r="G9" s="94"/>
-      <c r="H9" s="84"/>
-      <c r="I9" s="85"/>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="85"/>
-      <c r="M9" s="86"/>
-      <c r="N9" s="95"/>
-      <c r="O9" s="87"/>
-      <c r="P9" s="87"/>
-      <c r="Q9" s="87"/>
-      <c r="R9" s="87"/>
-      <c r="S9" s="87"/>
-      <c r="T9" s="87"/>
-      <c r="U9" s="87"/>
-      <c r="V9" s="87"/>
-      <c r="W9" s="87"/>
-      <c r="X9" s="88"/>
-      <c r="Y9" s="95"/>
-      <c r="Z9" s="87"/>
-      <c r="AA9" s="87"/>
-      <c r="AB9" s="87"/>
-      <c r="AC9" s="87"/>
-      <c r="AD9" s="87"/>
-      <c r="AE9" s="87"/>
-      <c r="AF9" s="87"/>
-      <c r="AG9" s="87"/>
-      <c r="AH9" s="87"/>
-      <c r="AI9" s="87"/>
-      <c r="AJ9" s="87"/>
-      <c r="AK9" s="87"/>
-      <c r="AL9" s="87"/>
-      <c r="AM9" s="87"/>
-      <c r="AN9" s="87"/>
-      <c r="AO9" s="87"/>
-      <c r="AP9" s="87"/>
-      <c r="AQ9" s="87"/>
-      <c r="AR9" s="87"/>
-      <c r="AS9" s="87"/>
-      <c r="AT9" s="87"/>
-      <c r="AU9" s="87"/>
-      <c r="AV9" s="87"/>
-      <c r="AW9" s="88"/>
-      <c r="AX9" s="90"/>
-      <c r="AY9" s="90"/>
-      <c r="AZ9" s="90"/>
-      <c r="BA9" s="91"/>
+      <c r="A9" s="50"/>
+      <c r="B9" s="50"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="61"/>
+      <c r="H9" s="51"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
+      <c r="M9" s="53"/>
+      <c r="N9" s="55"/>
+      <c r="O9" s="56"/>
+      <c r="P9" s="56"/>
+      <c r="Q9" s="56"/>
+      <c r="R9" s="56"/>
+      <c r="S9" s="56"/>
+      <c r="T9" s="56"/>
+      <c r="U9" s="56"/>
+      <c r="V9" s="56"/>
+      <c r="W9" s="56"/>
+      <c r="X9" s="57"/>
+      <c r="Y9" s="55"/>
+      <c r="Z9" s="56"/>
+      <c r="AA9" s="56"/>
+      <c r="AB9" s="56"/>
+      <c r="AC9" s="56"/>
+      <c r="AD9" s="56"/>
+      <c r="AE9" s="56"/>
+      <c r="AF9" s="56"/>
+      <c r="AG9" s="56"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="56"/>
+      <c r="AU9" s="56"/>
+      <c r="AV9" s="56"/>
+      <c r="AW9" s="57"/>
+      <c r="AX9" s="47"/>
+      <c r="AY9" s="47"/>
+      <c r="AZ9" s="47"/>
+      <c r="BA9" s="48"/>
     </row>
     <row r="10" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="93"/>
-      <c r="B10" s="93"/>
-      <c r="C10" s="94"/>
-      <c r="D10" s="94"/>
-      <c r="E10" s="94"/>
-      <c r="F10" s="94"/>
-      <c r="G10" s="94"/>
-      <c r="H10" s="84"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="85"/>
-      <c r="M10" s="86"/>
-      <c r="N10" s="95"/>
-      <c r="O10" s="87"/>
-      <c r="P10" s="87"/>
-      <c r="Q10" s="87"/>
-      <c r="R10" s="87"/>
-      <c r="S10" s="87"/>
-      <c r="T10" s="87"/>
-      <c r="U10" s="87"/>
-      <c r="V10" s="87"/>
-      <c r="W10" s="87"/>
-      <c r="X10" s="88"/>
-      <c r="Y10" s="95"/>
-      <c r="Z10" s="87"/>
-      <c r="AA10" s="87"/>
-      <c r="AB10" s="87"/>
-      <c r="AC10" s="87"/>
-      <c r="AD10" s="87"/>
-      <c r="AE10" s="87"/>
-      <c r="AF10" s="87"/>
-      <c r="AG10" s="87"/>
-      <c r="AH10" s="87"/>
-      <c r="AI10" s="87"/>
-      <c r="AJ10" s="87"/>
-      <c r="AK10" s="87"/>
-      <c r="AL10" s="87"/>
-      <c r="AM10" s="87"/>
-      <c r="AN10" s="87"/>
-      <c r="AO10" s="87"/>
-      <c r="AP10" s="87"/>
-      <c r="AQ10" s="87"/>
-      <c r="AR10" s="87"/>
-      <c r="AS10" s="87"/>
-      <c r="AT10" s="87"/>
-      <c r="AU10" s="87"/>
-      <c r="AV10" s="87"/>
-      <c r="AW10" s="88"/>
-      <c r="AX10" s="90"/>
-      <c r="AY10" s="90"/>
-      <c r="AZ10" s="90"/>
-      <c r="BA10" s="91"/>
+      <c r="A10" s="50"/>
+      <c r="B10" s="50"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="61"/>
+      <c r="H10" s="51"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
+      <c r="M10" s="53"/>
+      <c r="N10" s="55"/>
+      <c r="O10" s="56"/>
+      <c r="P10" s="56"/>
+      <c r="Q10" s="56"/>
+      <c r="R10" s="56"/>
+      <c r="S10" s="56"/>
+      <c r="T10" s="56"/>
+      <c r="U10" s="56"/>
+      <c r="V10" s="56"/>
+      <c r="W10" s="56"/>
+      <c r="X10" s="57"/>
+      <c r="Y10" s="55"/>
+      <c r="Z10" s="56"/>
+      <c r="AA10" s="56"/>
+      <c r="AB10" s="56"/>
+      <c r="AC10" s="56"/>
+      <c r="AD10" s="56"/>
+      <c r="AE10" s="56"/>
+      <c r="AF10" s="56"/>
+      <c r="AG10" s="56"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="56"/>
+      <c r="AU10" s="56"/>
+      <c r="AV10" s="56"/>
+      <c r="AW10" s="57"/>
+      <c r="AX10" s="47"/>
+      <c r="AY10" s="47"/>
+      <c r="AZ10" s="47"/>
+      <c r="BA10" s="48"/>
     </row>
     <row r="11" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="93"/>
-      <c r="B11" s="93"/>
-      <c r="C11" s="94"/>
-      <c r="D11" s="94"/>
-      <c r="E11" s="94"/>
-      <c r="F11" s="94"/>
-      <c r="G11" s="94"/>
-      <c r="H11" s="84"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="85"/>
-      <c r="M11" s="86"/>
-      <c r="N11" s="95"/>
-      <c r="O11" s="87"/>
-      <c r="P11" s="87"/>
-      <c r="Q11" s="87"/>
-      <c r="R11" s="87"/>
-      <c r="S11" s="87"/>
-      <c r="T11" s="87"/>
-      <c r="U11" s="87"/>
-      <c r="V11" s="87"/>
-      <c r="W11" s="87"/>
-      <c r="X11" s="88"/>
-      <c r="Y11" s="95"/>
-      <c r="Z11" s="87"/>
-      <c r="AA11" s="87"/>
-      <c r="AB11" s="87"/>
-      <c r="AC11" s="87"/>
-      <c r="AD11" s="87"/>
-      <c r="AE11" s="87"/>
-      <c r="AF11" s="87"/>
-      <c r="AG11" s="87"/>
-      <c r="AH11" s="87"/>
-      <c r="AI11" s="87"/>
-      <c r="AJ11" s="87"/>
-      <c r="AK11" s="87"/>
-      <c r="AL11" s="87"/>
-      <c r="AM11" s="87"/>
-      <c r="AN11" s="87"/>
-      <c r="AO11" s="87"/>
-      <c r="AP11" s="87"/>
-      <c r="AQ11" s="87"/>
-      <c r="AR11" s="87"/>
-      <c r="AS11" s="87"/>
-      <c r="AT11" s="87"/>
-      <c r="AU11" s="87"/>
-      <c r="AV11" s="87"/>
-      <c r="AW11" s="88"/>
-      <c r="AX11" s="90"/>
-      <c r="AY11" s="90"/>
-      <c r="AZ11" s="90"/>
-      <c r="BA11" s="91"/>
+      <c r="A11" s="50"/>
+      <c r="B11" s="50"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="61"/>
+      <c r="E11" s="61"/>
+      <c r="F11" s="61"/>
+      <c r="G11" s="61"/>
+      <c r="H11" s="51"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
+      <c r="M11" s="53"/>
+      <c r="N11" s="55"/>
+      <c r="O11" s="56"/>
+      <c r="P11" s="56"/>
+      <c r="Q11" s="56"/>
+      <c r="R11" s="56"/>
+      <c r="S11" s="56"/>
+      <c r="T11" s="56"/>
+      <c r="U11" s="56"/>
+      <c r="V11" s="56"/>
+      <c r="W11" s="56"/>
+      <c r="X11" s="57"/>
+      <c r="Y11" s="55"/>
+      <c r="Z11" s="56"/>
+      <c r="AA11" s="56"/>
+      <c r="AB11" s="56"/>
+      <c r="AC11" s="56"/>
+      <c r="AD11" s="56"/>
+      <c r="AE11" s="56"/>
+      <c r="AF11" s="56"/>
+      <c r="AG11" s="56"/>
+      <c r="AH11" s="56"/>
+      <c r="AI11" s="56"/>
+      <c r="AJ11" s="56"/>
+      <c r="AK11" s="56"/>
+      <c r="AL11" s="56"/>
+      <c r="AM11" s="56"/>
+      <c r="AN11" s="56"/>
+      <c r="AO11" s="56"/>
+      <c r="AP11" s="56"/>
+      <c r="AQ11" s="56"/>
+      <c r="AR11" s="56"/>
+      <c r="AS11" s="56"/>
+      <c r="AT11" s="56"/>
+      <c r="AU11" s="56"/>
+      <c r="AV11" s="56"/>
+      <c r="AW11" s="57"/>
+      <c r="AX11" s="47"/>
+      <c r="AY11" s="47"/>
+      <c r="AZ11" s="47"/>
+      <c r="BA11" s="48"/>
     </row>
     <row r="12" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="93"/>
-      <c r="B12" s="93"/>
-      <c r="C12" s="94"/>
-      <c r="D12" s="94"/>
-      <c r="E12" s="94"/>
-      <c r="F12" s="94"/>
-      <c r="G12" s="94"/>
-      <c r="H12" s="84"/>
-      <c r="I12" s="85"/>
-      <c r="J12" s="85"/>
-      <c r="K12" s="85"/>
-      <c r="L12" s="85"/>
-      <c r="M12" s="86"/>
-      <c r="N12" s="95"/>
-      <c r="O12" s="87"/>
-      <c r="P12" s="87"/>
-      <c r="Q12" s="87"/>
-      <c r="R12" s="87"/>
-      <c r="S12" s="87"/>
-      <c r="T12" s="87"/>
-      <c r="U12" s="87"/>
-      <c r="V12" s="87"/>
-      <c r="W12" s="87"/>
-      <c r="X12" s="88"/>
-      <c r="Y12" s="95"/>
-      <c r="Z12" s="87"/>
-      <c r="AA12" s="87"/>
-      <c r="AB12" s="87"/>
-      <c r="AC12" s="87"/>
-      <c r="AD12" s="87"/>
-      <c r="AE12" s="87"/>
-      <c r="AF12" s="87"/>
-      <c r="AG12" s="87"/>
-      <c r="AH12" s="87"/>
-      <c r="AI12" s="87"/>
-      <c r="AJ12" s="87"/>
-      <c r="AK12" s="87"/>
-      <c r="AL12" s="87"/>
-      <c r="AM12" s="87"/>
-      <c r="AN12" s="87"/>
-      <c r="AO12" s="87"/>
-      <c r="AP12" s="87"/>
-      <c r="AQ12" s="87"/>
-      <c r="AR12" s="87"/>
-      <c r="AS12" s="87"/>
-      <c r="AT12" s="87"/>
-      <c r="AU12" s="87"/>
-      <c r="AV12" s="87"/>
-      <c r="AW12" s="88"/>
-      <c r="AX12" s="90"/>
-      <c r="AY12" s="90"/>
-      <c r="AZ12" s="90"/>
-      <c r="BA12" s="91"/>
+      <c r="A12" s="50"/>
+      <c r="B12" s="50"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="61"/>
+      <c r="E12" s="61"/>
+      <c r="F12" s="61"/>
+      <c r="G12" s="61"/>
+      <c r="H12" s="51"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
+      <c r="M12" s="53"/>
+      <c r="N12" s="55"/>
+      <c r="O12" s="56"/>
+      <c r="P12" s="56"/>
+      <c r="Q12" s="56"/>
+      <c r="R12" s="56"/>
+      <c r="S12" s="56"/>
+      <c r="T12" s="56"/>
+      <c r="U12" s="56"/>
+      <c r="V12" s="56"/>
+      <c r="W12" s="56"/>
+      <c r="X12" s="57"/>
+      <c r="Y12" s="55"/>
+      <c r="Z12" s="56"/>
+      <c r="AA12" s="56"/>
+      <c r="AB12" s="56"/>
+      <c r="AC12" s="56"/>
+      <c r="AD12" s="56"/>
+      <c r="AE12" s="56"/>
+      <c r="AF12" s="56"/>
+      <c r="AG12" s="56"/>
+      <c r="AH12" s="56"/>
+      <c r="AI12" s="56"/>
+      <c r="AJ12" s="56"/>
+      <c r="AK12" s="56"/>
+      <c r="AL12" s="56"/>
+      <c r="AM12" s="56"/>
+      <c r="AN12" s="56"/>
+      <c r="AO12" s="56"/>
+      <c r="AP12" s="56"/>
+      <c r="AQ12" s="56"/>
+      <c r="AR12" s="56"/>
+      <c r="AS12" s="56"/>
+      <c r="AT12" s="56"/>
+      <c r="AU12" s="56"/>
+      <c r="AV12" s="56"/>
+      <c r="AW12" s="57"/>
+      <c r="AX12" s="47"/>
+      <c r="AY12" s="47"/>
+      <c r="AZ12" s="47"/>
+      <c r="BA12" s="48"/>
     </row>
     <row r="13" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="93"/>
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="94"/>
-      <c r="E13" s="94"/>
-      <c r="F13" s="94"/>
-      <c r="G13" s="94"/>
-      <c r="H13" s="84"/>
-      <c r="I13" s="85"/>
-      <c r="J13" s="85"/>
-      <c r="K13" s="85"/>
-      <c r="L13" s="85"/>
-      <c r="M13" s="86"/>
-      <c r="N13" s="95"/>
-      <c r="O13" s="87"/>
-      <c r="P13" s="87"/>
-      <c r="Q13" s="87"/>
-      <c r="R13" s="87"/>
-      <c r="S13" s="87"/>
-      <c r="T13" s="87"/>
-      <c r="U13" s="87"/>
-      <c r="V13" s="87"/>
-      <c r="W13" s="87"/>
-      <c r="X13" s="88"/>
-      <c r="Y13" s="95"/>
-      <c r="Z13" s="87"/>
-      <c r="AA13" s="87"/>
-      <c r="AB13" s="87"/>
-      <c r="AC13" s="87"/>
-      <c r="AD13" s="87"/>
-      <c r="AE13" s="87"/>
-      <c r="AF13" s="87"/>
-      <c r="AG13" s="87"/>
-      <c r="AH13" s="87"/>
-      <c r="AI13" s="87"/>
-      <c r="AJ13" s="87"/>
-      <c r="AK13" s="87"/>
-      <c r="AL13" s="87"/>
-      <c r="AM13" s="87"/>
-      <c r="AN13" s="87"/>
-      <c r="AO13" s="87"/>
-      <c r="AP13" s="87"/>
-      <c r="AQ13" s="87"/>
-      <c r="AR13" s="87"/>
-      <c r="AS13" s="87"/>
-      <c r="AT13" s="87"/>
-      <c r="AU13" s="87"/>
-      <c r="AV13" s="87"/>
-      <c r="AW13" s="88"/>
-      <c r="AX13" s="90"/>
-      <c r="AY13" s="90"/>
-      <c r="AZ13" s="90"/>
-      <c r="BA13" s="91"/>
+      <c r="A13" s="50"/>
+      <c r="B13" s="50"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="51"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="53"/>
+      <c r="N13" s="55"/>
+      <c r="O13" s="56"/>
+      <c r="P13" s="56"/>
+      <c r="Q13" s="56"/>
+      <c r="R13" s="56"/>
+      <c r="S13" s="56"/>
+      <c r="T13" s="56"/>
+      <c r="U13" s="56"/>
+      <c r="V13" s="56"/>
+      <c r="W13" s="56"/>
+      <c r="X13" s="57"/>
+      <c r="Y13" s="55"/>
+      <c r="Z13" s="56"/>
+      <c r="AA13" s="56"/>
+      <c r="AB13" s="56"/>
+      <c r="AC13" s="56"/>
+      <c r="AD13" s="56"/>
+      <c r="AE13" s="56"/>
+      <c r="AF13" s="56"/>
+      <c r="AG13" s="56"/>
+      <c r="AH13" s="56"/>
+      <c r="AI13" s="56"/>
+      <c r="AJ13" s="56"/>
+      <c r="AK13" s="56"/>
+      <c r="AL13" s="56"/>
+      <c r="AM13" s="56"/>
+      <c r="AN13" s="56"/>
+      <c r="AO13" s="56"/>
+      <c r="AP13" s="56"/>
+      <c r="AQ13" s="56"/>
+      <c r="AR13" s="56"/>
+      <c r="AS13" s="56"/>
+      <c r="AT13" s="56"/>
+      <c r="AU13" s="56"/>
+      <c r="AV13" s="56"/>
+      <c r="AW13" s="57"/>
+      <c r="AX13" s="47"/>
+      <c r="AY13" s="47"/>
+      <c r="AZ13" s="47"/>
+      <c r="BA13" s="48"/>
     </row>
     <row r="14" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="93"/>
-      <c r="B14" s="93"/>
-      <c r="C14" s="94"/>
-      <c r="D14" s="94"/>
-      <c r="E14" s="94"/>
-      <c r="F14" s="94"/>
-      <c r="G14" s="94"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="85"/>
-      <c r="J14" s="85"/>
-      <c r="K14" s="85"/>
-      <c r="L14" s="85"/>
-      <c r="M14" s="86"/>
-      <c r="N14" s="95"/>
-      <c r="O14" s="87"/>
-      <c r="P14" s="87"/>
-      <c r="Q14" s="87"/>
-      <c r="R14" s="87"/>
-      <c r="S14" s="87"/>
-      <c r="T14" s="87"/>
-      <c r="U14" s="87"/>
-      <c r="V14" s="87"/>
-      <c r="W14" s="87"/>
-      <c r="X14" s="88"/>
-      <c r="Y14" s="95"/>
-      <c r="Z14" s="87"/>
-      <c r="AA14" s="87"/>
-      <c r="AB14" s="87"/>
-      <c r="AC14" s="87"/>
-      <c r="AD14" s="87"/>
-      <c r="AE14" s="87"/>
-      <c r="AF14" s="87"/>
-      <c r="AG14" s="87"/>
-      <c r="AH14" s="87"/>
-      <c r="AI14" s="87"/>
-      <c r="AJ14" s="87"/>
-      <c r="AK14" s="87"/>
-      <c r="AL14" s="87"/>
-      <c r="AM14" s="87"/>
-      <c r="AN14" s="87"/>
-      <c r="AO14" s="87"/>
-      <c r="AP14" s="87"/>
-      <c r="AQ14" s="87"/>
-      <c r="AR14" s="87"/>
-      <c r="AS14" s="87"/>
-      <c r="AT14" s="87"/>
-      <c r="AU14" s="87"/>
-      <c r="AV14" s="87"/>
-      <c r="AW14" s="88"/>
-      <c r="AX14" s="90"/>
-      <c r="AY14" s="90"/>
-      <c r="AZ14" s="90"/>
-      <c r="BA14" s="91"/>
+      <c r="A14" s="50"/>
+      <c r="B14" s="50"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="61"/>
+      <c r="E14" s="61"/>
+      <c r="F14" s="61"/>
+      <c r="G14" s="61"/>
+      <c r="H14" s="51"/>
+      <c r="I14" s="52"/>
+      <c r="J14" s="52"/>
+      <c r="K14" s="52"/>
+      <c r="L14" s="52"/>
+      <c r="M14" s="53"/>
+      <c r="N14" s="55"/>
+      <c r="O14" s="56"/>
+      <c r="P14" s="56"/>
+      <c r="Q14" s="56"/>
+      <c r="R14" s="56"/>
+      <c r="S14" s="56"/>
+      <c r="T14" s="56"/>
+      <c r="U14" s="56"/>
+      <c r="V14" s="56"/>
+      <c r="W14" s="56"/>
+      <c r="X14" s="57"/>
+      <c r="Y14" s="55"/>
+      <c r="Z14" s="56"/>
+      <c r="AA14" s="56"/>
+      <c r="AB14" s="56"/>
+      <c r="AC14" s="56"/>
+      <c r="AD14" s="56"/>
+      <c r="AE14" s="56"/>
+      <c r="AF14" s="56"/>
+      <c r="AG14" s="56"/>
+      <c r="AH14" s="56"/>
+      <c r="AI14" s="56"/>
+      <c r="AJ14" s="56"/>
+      <c r="AK14" s="56"/>
+      <c r="AL14" s="56"/>
+      <c r="AM14" s="56"/>
+      <c r="AN14" s="56"/>
+      <c r="AO14" s="56"/>
+      <c r="AP14" s="56"/>
+      <c r="AQ14" s="56"/>
+      <c r="AR14" s="56"/>
+      <c r="AS14" s="56"/>
+      <c r="AT14" s="56"/>
+      <c r="AU14" s="56"/>
+      <c r="AV14" s="56"/>
+      <c r="AW14" s="57"/>
+      <c r="AX14" s="47"/>
+      <c r="AY14" s="47"/>
+      <c r="AZ14" s="47"/>
+      <c r="BA14" s="48"/>
     </row>
     <row r="15" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C15" s="91"/>
-      <c r="D15" s="91"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
     </row>
     <row r="16" spans="1:53" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C16" s="91"/>
-      <c r="D16" s="91"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
     </row>
     <row r="17" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C17" s="91"/>
-      <c r="D17" s="91"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
     </row>
     <row r="18" spans="3:4" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="C18" s="91"/>
-      <c r="D18" s="91"/>
+      <c r="C18" s="48"/>
+      <c r="D18" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="64">
@@ -5941,6 +5945,7 @@
     <mergeCell ref="N9:X9"/>
     <mergeCell ref="Y9:AW9"/>
     <mergeCell ref="A12:B12"/>
+    <mergeCell ref="N10:X10"/>
     <mergeCell ref="A13:B13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="C14:G14"/>
@@ -5951,7 +5956,6 @@
     <mergeCell ref="H13:M13"/>
     <mergeCell ref="H14:M14"/>
     <mergeCell ref="C13:G13"/>
-    <mergeCell ref="N10:X10"/>
     <mergeCell ref="AT2:AW3"/>
     <mergeCell ref="AP2:AS3"/>
     <mergeCell ref="N8:X8"/>
@@ -5995,8 +5999,8 @@
   </sheetPr>
   <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -6014,65 +6018,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="54" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="77" t="s">
         <v>80</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6464,7 +6468,7 @@
   </sheetPr>
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -6484,65 +6488,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="77" t="s">
         <v>82</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="54" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="77" t="s">
         <v>83</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6742,7 +6746,7 @@
   </sheetPr>
   <dimension ref="A1:M8"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -6761,65 +6765,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="45"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="86"/>
+      <c r="C1" s="77" t="s">
         <v>85</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="54" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="44" t="s">
+      <c r="A2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="83"/>
+      <c r="C2" s="77" t="s">
         <v>84</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="44" t="s">
+      <c r="A3" s="83" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="83"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -6997,7 +7001,7 @@
   </sheetPr>
   <dimension ref="A1:M13"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
@@ -7018,65 +7022,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="77" t="s">
         <v>86</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="54" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="52" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="94" t="s">
         <v>87</v>
       </c>
-      <c r="D2" s="53"/>
-      <c r="E2" s="53"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
       <c r="F2" s="40"/>
-      <c r="G2" s="54" t="s">
+      <c r="G2" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
@@ -7396,8 +7400,8 @@
   </sheetPr>
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRuler="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView showGridLines="0" zoomScaleNormal="90" zoomScaleSheetLayoutView="100" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.19921875" defaultRowHeight="17" x14ac:dyDescent="0.15"/>
@@ -7416,65 +7420,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="1" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="46" t="s">
+      <c r="A1" s="88" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="47"/>
-      <c r="C1" s="41" t="s">
+      <c r="B1" s="89"/>
+      <c r="C1" s="77" t="s">
         <v>89</v>
       </c>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="43"/>
-      <c r="G1" s="54" t="s">
+      <c r="D1" s="78"/>
+      <c r="E1" s="78"/>
+      <c r="F1" s="79"/>
+      <c r="G1" s="87" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="54"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
-      <c r="K1" s="55"/>
-      <c r="L1" s="55"/>
-      <c r="M1" s="55"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="76"/>
+      <c r="J1" s="76"/>
+      <c r="K1" s="76"/>
+      <c r="L1" s="76"/>
+      <c r="M1" s="76"/>
     </row>
     <row r="2" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="90" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49"/>
-      <c r="C2" s="41" t="s">
+      <c r="B2" s="91"/>
+      <c r="C2" s="77" t="s">
         <v>88</v>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="54" t="s">
+      <c r="D2" s="78"/>
+      <c r="E2" s="78"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="87" t="s">
         <v>108</v>
       </c>
-      <c r="H2" s="54"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="55"/>
-      <c r="M2" s="55"/>
+      <c r="H2" s="87"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
+      <c r="K2" s="76"/>
+      <c r="L2" s="76"/>
+      <c r="M2" s="76"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="92" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="59"/>
-      <c r="E3" s="59"/>
-      <c r="F3" s="60"/>
-      <c r="G3" s="56" t="s">
+      <c r="B3" s="93"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="81"/>
+      <c r="E3" s="81"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="84" t="s">
         <v>109</v>
       </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="57"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="85"/>
+      <c r="J3" s="85"/>
+      <c r="K3" s="85"/>
+      <c r="L3" s="85"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="36"/>
